--- a/100runs/run014/NotionalETEOutput014.xlsx
+++ b/100runs/run014/NotionalETEOutput014.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="19">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,22 +49,28 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER_State_Update</t>
+    <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
+    <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_23.MISSILE_BRAVER_23</t>
+    <t>MISSILE_HIGHWIND_67.MISSILE_HIGHWIND_67</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_217.MISSILE_SOMERSAULT_217</t>
+    <t>MISSILE_HELLMASKER_269.MISSILE_HELLMASKER_269</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER</t>
+    <t>MISSILE_HIGHWIND_165.MISSILE_HIGHWIND_165</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT</t>
+    <t>MISSILE_HELLMASKER_380.MISSILE_HELLMASKER_380</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,28 +480,28 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>250.5655170323903</v>
+        <v>1116575.868531325</v>
       </c>
       <c r="G2">
-        <v>-106.1948935357069</v>
+        <v>4841122.255504478</v>
       </c>
       <c r="H2">
-        <v>520.6329866713872</v>
+        <v>3985224.078289243</v>
       </c>
       <c r="I2">
-        <v>-2340.063288846513</v>
+        <v>1114862.270896258</v>
       </c>
       <c r="J2">
-        <v>2951.31616131173</v>
+        <v>4843219.507637047</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984367.748332617</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -509,28 +515,28 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>250.5655170323903</v>
+        <v>1116575.868531325</v>
       </c>
       <c r="G3">
-        <v>-106.1948935357069</v>
+        <v>4841122.255504478</v>
       </c>
       <c r="H3">
-        <v>520.6329866713872</v>
+        <v>3985224.078289243</v>
       </c>
       <c r="I3">
-        <v>-2293.864208550841</v>
+        <v>1114891.884916986</v>
       </c>
       <c r="J3">
-        <v>2879.523051995576</v>
+        <v>4843170.856086653</v>
       </c>
       <c r="K3">
-        <v>391.7727360573052</v>
+        <v>3984671.544128422</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,28 +550,28 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>250.5655170323903</v>
+        <v>1116575.868531325</v>
       </c>
       <c r="G4">
-        <v>-106.1948935357069</v>
+        <v>4841122.255504478</v>
       </c>
       <c r="H4">
-        <v>520.6329866713872</v>
+        <v>3985224.078289243</v>
       </c>
       <c r="I4">
-        <v>-2246.527518405262</v>
+        <v>1114922.228155731</v>
       </c>
       <c r="J4">
-        <v>2807.729942679423</v>
+        <v>4843122.204536257</v>
       </c>
       <c r="K4">
-        <v>764.0098876730407</v>
+        <v>3984960.191273299</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,28 +585,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>250.5655170323903</v>
+        <v>1116575.868531325</v>
       </c>
       <c r="G5">
-        <v>-106.1948935357069</v>
+        <v>4841122.255504478</v>
       </c>
       <c r="H5">
-        <v>520.6329866713872</v>
+        <v>3985224.078289243</v>
       </c>
       <c r="I5">
-        <v>-2198.025205813804</v>
+        <v>1114953.318568814</v>
       </c>
       <c r="J5">
-        <v>2735.936833363269</v>
+        <v>4843073.552985863</v>
       </c>
       <c r="K5">
-        <v>1116.711454847209</v>
+        <v>3985233.689767246</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -614,28 +620,28 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>250.5655170323903</v>
+        <v>1116575.868531325</v>
       </c>
       <c r="G6">
-        <v>-106.1948935357069</v>
+        <v>4841122.255504478</v>
       </c>
       <c r="H6">
-        <v>520.6329866713872</v>
+        <v>3985224.078289243</v>
       </c>
       <c r="I6">
-        <v>-2148.328568396092</v>
+        <v>1114985.174554716</v>
       </c>
       <c r="J6">
-        <v>2664.143724047116</v>
+        <v>4843024.901435467</v>
       </c>
       <c r="K6">
-        <v>1449.877437579809</v>
+        <v>3985492.039610265</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -649,28 +655,28 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>250.5655170323903</v>
+        <v>1116575.868531325</v>
       </c>
       <c r="G7">
-        <v>-106.1948935357069</v>
+        <v>4841122.255504478</v>
       </c>
       <c r="H7">
-        <v>520.6329866713872</v>
+        <v>3985224.078289243</v>
       </c>
       <c r="I7">
-        <v>-2097.408197002036</v>
+        <v>1115017.814964965</v>
       </c>
       <c r="J7">
-        <v>2592.350614730962</v>
+        <v>4842976.249885073</v>
       </c>
       <c r="K7">
-        <v>1763.507835870842</v>
+        <v>3985735.240802356</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -684,28 +690,28 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>250.5655170323903</v>
+        <v>1116575.868531325</v>
       </c>
       <c r="G8">
-        <v>-106.1948935357069</v>
+        <v>4841122.255504478</v>
       </c>
       <c r="H8">
-        <v>520.6329866713872</v>
+        <v>3985224.078289243</v>
       </c>
       <c r="I8">
-        <v>-2045.233958308284</v>
+        <v>1115051.259115287</v>
       </c>
       <c r="J8">
-        <v>2520.557505414808</v>
+        <v>4842927.598334678</v>
       </c>
       <c r="K8">
-        <v>2057.602649720307</v>
+        <v>3985963.293343517</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,28 +725,28 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>250.5655170323903</v>
+        <v>1116575.868531325</v>
       </c>
       <c r="G9">
-        <v>-106.1948935357069</v>
+        <v>4841122.255504478</v>
       </c>
       <c r="H9">
-        <v>520.6329866713872</v>
+        <v>3985224.078289243</v>
       </c>
       <c r="I9">
-        <v>-1991.774976986118</v>
+        <v>1115085.526797043</v>
       </c>
       <c r="J9">
-        <v>2448.764396098655</v>
+        <v>4842878.946784283</v>
       </c>
       <c r="K9">
-        <v>2332.161879128204</v>
+        <v>3986176.197233749</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -754,28 +760,28 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>250.5655170323903</v>
+        <v>1116575.868531325</v>
       </c>
       <c r="G10">
-        <v>-88.65912742336587</v>
+        <v>4841138.768315816</v>
       </c>
       <c r="H10">
-        <v>520.6329866713872</v>
+        <v>3985224.078289243</v>
       </c>
       <c r="I10">
-        <v>-1936.999617430255</v>
+        <v>1115120.638288937</v>
       </c>
       <c r="J10">
-        <v>2376.971286782501</v>
+        <v>4842830.295233888</v>
       </c>
       <c r="K10">
-        <v>2587.185524094531</v>
+        <v>3986373.952473052</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,28 +795,28 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>194.4680713030128</v>
+        <v>1116527.18808245</v>
       </c>
       <c r="G11">
-        <v>-71.12336131102485</v>
+        <v>4841155.281127155</v>
       </c>
       <c r="H11">
-        <v>641.4163362107221</v>
+        <v>3985423.332483522</v>
       </c>
       <c r="I11">
-        <v>-1880.875465037735</v>
+        <v>1115156.614369016</v>
       </c>
       <c r="J11">
-        <v>2305.178177466348</v>
+        <v>4842781.643683493</v>
       </c>
       <c r="K11">
-        <v>2822.673584619291</v>
+        <v>3986556.559061428</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -824,28 +830,28 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>161.5136360886639</v>
+        <v>1116498.59076081</v>
       </c>
       <c r="G12">
-        <v>-53.58759519868386</v>
+        <v>4841171.793938494</v>
       </c>
       <c r="H12">
-        <v>713.3610762913537</v>
+        <v>3985542.018471881</v>
       </c>
       <c r="I12">
-        <v>-1823.369307025824</v>
+        <v>1115193.47632697</v>
       </c>
       <c r="J12">
-        <v>2233.385068150194</v>
+        <v>4842732.992133098</v>
       </c>
       <c r="K12">
-        <v>3038.626060702483</v>
+        <v>3986724.016998874</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -859,28 +865,28 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>140.7103789216775</v>
+        <v>1116480.538033386</v>
       </c>
       <c r="G13">
-        <v>-36.05182908634284</v>
+        <v>4841188.306749833</v>
       </c>
       <c r="H13">
-        <v>764.775119467891</v>
+        <v>3985626.835326082</v>
       </c>
       <c r="I13">
-        <v>-1764.447112777563</v>
+        <v>1115231.245976726</v>
       </c>
       <c r="J13">
-        <v>2161.591958834041</v>
+        <v>4842684.340582703</v>
       </c>
       <c r="K13">
-        <v>3235.042952344108</v>
+        <v>3986876.326285391</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -894,28 +900,28 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>126.2022718187996</v>
+        <v>1116467.948134561</v>
       </c>
       <c r="G14">
-        <v>-18.51606297400183</v>
+        <v>4841204.819561171</v>
       </c>
       <c r="H14">
-        <v>804.8112073443669</v>
+        <v>3985692.882165007</v>
       </c>
       <c r="I14">
-        <v>-1704.074013703364</v>
+        <v>1115269.94566936</v>
       </c>
       <c r="J14">
-        <v>2089.798849517887</v>
+        <v>4842635.689032308</v>
       </c>
       <c r="K14">
-        <v>3411.924259544164</v>
+        <v>3987013.48692098</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -929,28 +935,28 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>115.3787894518165</v>
+        <v>1116458.555693012</v>
       </c>
       <c r="G15">
-        <v>-0.9802968616608317</v>
+        <v>4841221.33237251</v>
       </c>
       <c r="H15">
-        <v>837.6038687972463</v>
+        <v>3985746.979649147</v>
       </c>
       <c r="I15">
-        <v>-1642.214282606696</v>
+        <v>1115309.598306322</v>
       </c>
       <c r="J15">
-        <v>2018.005740201734</v>
+        <v>4842587.037481913</v>
       </c>
       <c r="K15">
-        <v>3569.269982302652</v>
+        <v>3987135.49890564</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -964,28 +970,28 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>106.9163376953385</v>
+        <v>1116451.212115337</v>
       </c>
       <c r="G16">
-        <v>16.55546925068018</v>
+        <v>4841237.845183848</v>
       </c>
       <c r="H16">
-        <v>865.3768592995684</v>
+        <v>3985792.796269288</v>
       </c>
       <c r="I16">
-        <v>-1578.831312541681</v>
+        <v>1115350.22735299</v>
       </c>
       <c r="J16">
-        <v>1946.21263088558</v>
+        <v>4842538.385931518</v>
       </c>
       <c r="K16">
-        <v>3707.080120619572</v>
+        <v>3987242.362239371</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -999,28 +1005,28 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>100.0695980530311</v>
+        <v>1116445.270626295</v>
       </c>
       <c r="G17">
-        <v>34.09123536302119</v>
+        <v>4841254.357995187</v>
       </c>
       <c r="H17">
-        <v>889.4648703449394</v>
+        <v>3985832.53384281</v>
       </c>
       <c r="I17">
-        <v>-1513.887595150079</v>
+        <v>1115391.856852553</v>
       </c>
       <c r="J17">
-        <v>1874.419521569427</v>
+        <v>4842489.734381123</v>
       </c>
       <c r="K17">
-        <v>3825.354674494924</v>
+        <v>3987334.076922173</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1034,28 +1040,28 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>94.38436451991065</v>
+        <v>1116440.337073318</v>
       </c>
       <c r="G18">
-        <v>51.62700147536219</v>
+        <v>4841270.870806526</v>
       </c>
       <c r="H18">
-        <v>910.7322005002202</v>
+        <v>3985867.618188051</v>
       </c>
       <c r="I18">
-        <v>-1447.344698464833</v>
+        <v>1115434.511440245</v>
       </c>
       <c r="J18">
-        <v>1802.626412253273</v>
+        <v>4842441.082830728</v>
       </c>
       <c r="K18">
-        <v>3924.093643928708</v>
+        <v>3987410.642954046</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1069,28 +1075,28 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>89.56655686126483</v>
+        <v>1116436.156258374</v>
       </c>
       <c r="G19">
-        <v>69.16276758770321</v>
+        <v>4841287.383617864</v>
       </c>
       <c r="H19">
-        <v>929.7707405901979</v>
+        <v>3985899.025737025</v>
       </c>
       <c r="I19">
-        <v>-1379.163244167055</v>
+        <v>1115478.216357917</v>
       </c>
       <c r="J19">
-        <v>1730.833302937119</v>
+        <v>4842392.431280334</v>
       </c>
       <c r="K19">
-        <v>4003.297028920924</v>
+        <v>3987472.060334991</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1104,28 +1110,28 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>85.41648559042139</v>
+        <v>1116432.554894182</v>
       </c>
       <c r="G20">
-        <v>86.69853370004422</v>
+        <v>4841303.896429203</v>
       </c>
       <c r="H20">
-        <v>947.0036431205136</v>
+        <v>3985927.454557072</v>
       </c>
       <c r="I20">
-        <v>-1309.302884282981</v>
+        <v>1115522.99746898</v>
       </c>
       <c r="J20">
-        <v>1659.040193620966</v>
+        <v>4842343.779729938</v>
       </c>
       <c r="K20">
-        <v>4062.964829471572</v>
+        <v>3987518.329065007</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1139,28 +1145,28 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>81.79325892959463</v>
+        <v>1116429.410717153</v>
       </c>
       <c r="G21">
-        <v>104.2342998123852</v>
+        <v>4841320.409240542</v>
       </c>
       <c r="H21">
-        <v>962.7439318921107</v>
+        <v>3985953.421038122</v>
       </c>
       <c r="I21">
-        <v>-1237.722277307116</v>
+        <v>1115568.881273704</v>
       </c>
       <c r="J21">
-        <v>1587.247084304812</v>
+        <v>4842295.128179544</v>
       </c>
       <c r="K21">
-        <v>4103.097045580652</v>
+        <v>3987549.449144094</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1174,28 +1180,28 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>78.59429223593411</v>
+        <v>1116426.634706008</v>
       </c>
       <c r="G22">
-        <v>121.7700659247262</v>
+        <v>4841336.922051881</v>
       </c>
       <c r="H22">
-        <v>977.2296856360906</v>
+        <v>3985977.317934521</v>
       </c>
       <c r="I22">
-        <v>-1164.37906373742</v>
+        <v>1115615.894924907</v>
       </c>
       <c r="J22">
-        <v>1515.453974988659</v>
+        <v>4842246.476629148</v>
       </c>
       <c r="K22">
-        <v>4123.693677248164</v>
+        <v>3987565.420572252</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1209,28 +1215,28 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>75.7429031144672</v>
+        <v>1116424.160317013</v>
       </c>
       <c r="G23">
-        <v>139.3058320370672</v>
+        <v>4841353.43486322</v>
       </c>
       <c r="H23">
-        <v>990.6462045229667</v>
+        <v>3985999.450932745</v>
       </c>
       <c r="I23">
-        <v>-1089.22984100809</v>
+        <v>1115664.066244019</v>
       </c>
       <c r="J23">
-        <v>1443.660865672505</v>
+        <v>4842197.825078754</v>
       </c>
       <c r="K23">
-        <v>4124.754724474108</v>
+        <v>3987566.243349482</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1244,28 +1250,28 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>73.18047967179857</v>
+        <v>1116421.936687723</v>
       </c>
       <c r="G24">
-        <v>156.8415981494083</v>
+        <v>4841369.947674558</v>
       </c>
       <c r="H24">
-        <v>1003.140542705663</v>
+        <v>3986020.062625476</v>
       </c>
       <c r="I24">
-        <v>-1012.230137805067</v>
+        <v>1115713.423737548</v>
       </c>
       <c r="J24">
-        <v>1371.867756356352</v>
+        <v>4842149.173528358</v>
       </c>
       <c r="K24">
-        <v>4106.280187258484</v>
+        <v>3987551.917475782</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1279,28 +1285,28 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>70.8613572205128</v>
+        <v>1116419.924191068</v>
       </c>
       <c r="G25">
-        <v>174.3773642617493</v>
+        <v>4841386.460485897</v>
       </c>
       <c r="H25">
-        <v>1014.831359493966</v>
+        <v>3986039.348762915</v>
       </c>
       <c r="I25">
-        <v>-933.3343877490973</v>
+        <v>1115763.996613947</v>
       </c>
       <c r="J25">
-        <v>1300.074647040198</v>
+        <v>4842100.521977964</v>
       </c>
       <c r="K25">
-        <v>4068.270065601292</v>
+        <v>3987522.442951154</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1314,28 +1320,28 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>68.74936319861186</v>
+        <v>1116418.091437086</v>
       </c>
       <c r="G26">
-        <v>191.9131303740903</v>
+        <v>4841402.973297236</v>
       </c>
       <c r="H26">
-        <v>1025.81578975509</v>
+        <v>3986057.469586767</v>
       </c>
       <c r="I26">
-        <v>-852.4959024307589</v>
+        <v>1115815.814800901</v>
       </c>
       <c r="J26">
-        <v>1228.281537724045</v>
+        <v>4842051.870427568</v>
       </c>
       <c r="K26">
-        <v>4010.724359502532</v>
+        <v>3987477.819775598</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1349,28 +1355,28 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>66.81542485852965</v>
+        <v>1116416.413196923</v>
       </c>
       <c r="G27">
-        <v>209.4488964864313</v>
+        <v>4841419.486108574</v>
       </c>
       <c r="H27">
-        <v>1036.17435436382</v>
+        <v>3986074.557930921</v>
       </c>
       <c r="I27">
-        <v>-769.6668437814993</v>
+        <v>1115868.908963037</v>
       </c>
       <c r="J27">
-        <v>1156.488428407891</v>
+        <v>4842003.218877173</v>
       </c>
       <c r="K27">
-        <v>3933.643068962203</v>
+        <v>3987418.047949112</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1384,28 +1390,28 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>65.03587418143934</v>
+        <v>1116414.868931856</v>
       </c>
       <c r="G28">
-        <v>226.9846625987723</v>
+        <v>4841435.998919913</v>
       </c>
       <c r="H28">
-        <v>1045.974545589054</v>
+        <v>3986090.725136201</v>
       </c>
       <c r="I28">
-        <v>-684.7981957643389</v>
+        <v>1115923.310520069</v>
       </c>
       <c r="J28">
-        <v>1084.695319091738</v>
+        <v>4841954.567326779</v>
       </c>
       <c r="K28">
-        <v>3837.026193980307</v>
+        <v>3987343.127471698</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1419,28 +1425,28 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>63.3912221387192</v>
+        <v>1116413.441729625</v>
       </c>
       <c r="G29">
-        <v>244.5204287111133</v>
+        <v>4841452.511731252</v>
       </c>
       <c r="H29">
-        <v>1055.273494609096</v>
+        <v>3986106.065450919</v>
       </c>
       <c r="I29">
-        <v>-597.8397353674793</v>
+        <v>1115979.051665395</v>
       </c>
       <c r="J29">
-        <v>1012.902209775584</v>
+        <v>4841905.915776384</v>
       </c>
       <c r="K29">
-        <v>3720.873734556843</v>
+        <v>3987253.058343355</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1454,28 +1460,28 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>61.86525618353711</v>
+        <v>1116412.117521247</v>
       </c>
       <c r="G30">
-        <v>262.0561948234543</v>
+        <v>4841469.02454259</v>
       </c>
       <c r="H30">
-        <v>1064.11998944815</v>
+        <v>3986120.659359831</v>
       </c>
       <c r="I30">
-        <v>-508.740002883664</v>
+        <v>1116036.165385144</v>
       </c>
       <c r="J30">
-        <v>941.1091004594304</v>
+        <v>4841857.264225989</v>
       </c>
       <c r="K30">
-        <v>3585.18569069181</v>
+        <v>3987147.840564083</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1489,28 +1495,28 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>60.44436491012604</v>
+        <v>1116410.884494964</v>
       </c>
       <c r="G31">
-        <v>279.5919609357953</v>
+        <v>4841485.537353929</v>
       </c>
       <c r="H31">
-        <v>1072.556024369222</v>
+        <v>3986134.576140145</v>
       </c>
       <c r="I31">
-        <v>-417.4462714576858</v>
+        <v>1116094.685477698</v>
       </c>
       <c r="J31">
-        <v>869.3159911432771</v>
+        <v>4841808.612675593</v>
       </c>
       <c r="K31">
-        <v>3429.962062385211</v>
+        <v>3987027.474133883</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1524,28 +1530,28 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>59.1170253002953</v>
+        <v>1116409.732651289</v>
       </c>
       <c r="G32">
-        <v>297.1277270481364</v>
+        <v>4841502.050165269</v>
       </c>
       <c r="H32">
-        <v>1080.618005499485</v>
+        <v>3986147.875850416</v>
       </c>
       <c r="I32">
-        <v>-323.9045158840358</v>
+        <v>1116154.646573694</v>
       </c>
       <c r="J32">
-        <v>797.5228818271233</v>
+        <v>4841759.961125199</v>
       </c>
       <c r="K32">
-        <v>3255.202849637042</v>
+        <v>3986891.959052753</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1559,28 +1565,28 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>57.87340826159922</v>
+        <v>1116408.653460697</v>
       </c>
       <c r="G33">
-        <v>314.6634931604773</v>
+        <v>4841518.562976606</v>
       </c>
       <c r="H33">
-        <v>1088.33770033935</v>
+        <v>3986160.610896938</v>
       </c>
       <c r="I33">
-        <v>-228.0593806362214</v>
+        <v>1116216.084156515</v>
       </c>
       <c r="J33">
-        <v>725.72977251097</v>
+        <v>4841711.309574804</v>
       </c>
       <c r="K33">
-        <v>3060.908052447306</v>
+        <v>3986741.295320695</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1594,28 +1600,28 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>56.70507151925346</v>
+        <v>1116407.639597119</v>
       </c>
       <c r="G34">
-        <v>332.1992592728183</v>
+        <v>4841535.075787946</v>
       </c>
       <c r="H34">
-        <v>1095.74299379248</v>
+        <v>3986172.827280951</v>
       </c>
       <c r="I34">
-        <v>-129.8541471088369</v>
+        <v>1116279.034583292</v>
       </c>
       <c r="J34">
-        <v>653.9366631948163</v>
+        <v>4841662.658024409</v>
       </c>
       <c r="K34">
-        <v>2847.077670816002</v>
+        <v>3986575.482937708</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1629,28 +1635,28 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>55.60471789492911</v>
+        <v>1116406.684728182</v>
       </c>
       <c r="G35">
-        <v>349.7350253851594</v>
+        <v>4841551.588599283</v>
       </c>
       <c r="H35">
-        <v>1102.858496179672</v>
+        <v>3986184.565601675</v>
       </c>
       <c r="I35">
-        <v>-29.23070005299923</v>
+        <v>1116343.535106415</v>
       </c>
       <c r="J35">
-        <v>582.1435538786626</v>
+        <v>4841614.006474013</v>
       </c>
       <c r="K35">
-        <v>2613.711704743128</v>
+        <v>3986394.521903791</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1664,28 +1670,28 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>54.56600313938731</v>
+        <v>1116405.783348451</v>
       </c>
       <c r="G36">
-        <v>367.2707914975004</v>
+        <v>4841568.101410623</v>
       </c>
       <c r="H36">
-        <v>1109.706036704684</v>
+        <v>3986195.861870369</v>
       </c>
       <c r="I36">
-        <v>73.87050681471487</v>
+        <v>1116409.62389558</v>
       </c>
       <c r="J36">
-        <v>510.3504445625093</v>
+        <v>4841565.354923619</v>
       </c>
       <c r="K36">
-        <v>2360.810154228689</v>
+        <v>3986198.412218947</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1699,28 +1705,28 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>53.58338174907064</v>
+        <v>1116404.930645628</v>
       </c>
       <c r="G37">
-        <v>384.8065576098414</v>
+        <v>4841584.614221961</v>
       </c>
       <c r="H37">
-        <v>1116.305067331021</v>
+        <v>3986206.748176598</v>
       </c>
       <c r="I37">
-        <v>179.5104860501752</v>
+        <v>1116477.340060378</v>
       </c>
       <c r="J37">
-        <v>438.5573352463556</v>
+        <v>4841516.703373224</v>
       </c>
       <c r="K37">
-        <v>2088.37301927268</v>
+        <v>3985987.153883174</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1734,28 +1740,28 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>52.65198220452488</v>
+        <v>1116404.122392287</v>
       </c>
       <c r="G38">
-        <v>402.3423237221824</v>
+        <v>4841601.1270333</v>
       </c>
       <c r="H38">
-        <v>1122.672995905676</v>
+        <v>3986217.253237786</v>
       </c>
       <c r="I38">
-        <v>287.7517525873109</v>
+        <v>1116546.723673437</v>
       </c>
       <c r="J38">
-        <v>366.7642259302023</v>
+        <v>4841468.051822829</v>
       </c>
       <c r="K38">
-        <v>1796.400299875105</v>
+        <v>3985760.746896472</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1769,28 +1775,28 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>51.7675052201113</v>
+        <v>1116403.354857579</v>
       </c>
       <c r="G39">
-        <v>419.8780898345235</v>
+        <v>4841617.639844638</v>
       </c>
       <c r="H39">
-        <v>1128.825462901524</v>
+        <v>3986227.402855748</v>
       </c>
       <c r="I39">
-        <v>398.6583607327831</v>
+        <v>1116617.815794135</v>
       </c>
       <c r="J39">
-        <v>294.9711166140486</v>
+        <v>4841419.400272434</v>
       </c>
       <c r="K39">
-        <v>1484.891996035959</v>
+        <v>3985519.191258841</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1804,28 +1810,28 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>50.92614015334223</v>
+        <v>1116402.62473469</v>
       </c>
       <c r="G40">
-        <v>437.4138559468644</v>
+        <v>4841634.152655978</v>
       </c>
       <c r="H40">
-        <v>1134.776572855511</v>
+        <v>3986237.220298496</v>
       </c>
       <c r="I40">
-        <v>512.29594207163</v>
+        <v>1116690.658492902</v>
       </c>
       <c r="J40">
-        <v>223.1780072978949</v>
+        <v>4841370.748722039</v>
       </c>
       <c r="K40">
-        <v>1153.848107755246</v>
+        <v>3985262.486970281</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1839,28 +1845,28 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>50.12449586504147</v>
+        <v>1116401.929080846</v>
       </c>
       <c r="G41">
-        <v>454.9496220592054</v>
+        <v>4841650.665467316</v>
       </c>
       <c r="H41">
-        <v>1140.539089121046</v>
+        <v>3986246.72662151</v>
       </c>
       <c r="I41">
-        <v>628.7317443062864</v>
+        <v>1116765.294876111</v>
       </c>
       <c r="J41">
-        <v>151.3848979817416</v>
+        <v>4841322.097171645</v>
       </c>
       <c r="K41">
-        <v>803.2686350329664</v>
+        <v>3984990.634030792</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1874,28 +1880,28 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>49.35954316866798</v>
+        <v>1116401.265267367</v>
       </c>
       <c r="G42">
-        <v>472.4853881715464</v>
+        <v>4841667.178278655</v>
       </c>
       <c r="H42">
-        <v>1146.124598698893</v>
+        <v>3986255.940939666</v>
       </c>
       <c r="I42">
-        <v>748.0346710519998</v>
+        <v>1116841.769111594</v>
       </c>
       <c r="J42">
-        <v>79.5917886655879</v>
+        <v>4841273.445621249</v>
       </c>
       <c r="K42">
-        <v>433.1535778691172</v>
+        <v>3984703.632440375</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1909,28 +1915,28 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>48.6285666415108</v>
+        <v>1116400.630937853</v>
       </c>
       <c r="G43">
-        <v>490.0211542838875</v>
+        <v>4841683.691089994</v>
       </c>
       <c r="H43">
-        <v>1151.543652499004</v>
+        <v>3986264.880658616</v>
       </c>
       <c r="I43">
-        <v>870.2753226121454</v>
+        <v>1116920.12645477</v>
       </c>
       <c r="J43">
-        <v>7.798679349434222</v>
+        <v>4841224.794070854</v>
       </c>
       <c r="K43">
-        <v>43.50293626370037</v>
+        <v>3984401.48219903</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1944,28 +1950,28 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>47.92912405007711</v>
+        <v>1116400.023972975</v>
       </c>
       <c r="G44">
-        <v>507.5569203962285</v>
+        <v>4841700.203901332</v>
       </c>
       <c r="H44">
-        <v>1156.805885300995</v>
+        <v>3986273.561672688</v>
       </c>
       <c r="I44">
-        <v>995.5260377576212</v>
+        <v>1117000.413275434</v>
       </c>
       <c r="J44">
-        <v>-63.99442996671912</v>
+        <v>4841176.142520459</v>
       </c>
       <c r="K44">
-        <v>-365.6832897832834</v>
+        <v>3984084.183306754</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1979,28 +1985,28 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>47.25901200785177</v>
+        <v>1116399.442460669</v>
       </c>
       <c r="G45">
-        <v>525.0926865085694</v>
+        <v>4841716.716712671</v>
       </c>
       <c r="H45">
-        <v>1161.920118840352</v>
+        <v>3986281.998534947</v>
       </c>
       <c r="I45">
-        <v>1123.86093653501</v>
+        <v>1117082.677085194</v>
       </c>
       <c r="J45">
-        <v>-135.7875392828728</v>
+        <v>4841127.490970065</v>
       </c>
       <c r="K45">
-        <v>-794.4051002718363</v>
+        <v>3983751.735763551</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2014,28 +2020,28 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>46.61623676503663</v>
+        <v>1116398.884670792</v>
       </c>
       <c r="G46">
-        <v>542.6284526209105</v>
+        <v>4841733.229524009</v>
       </c>
       <c r="H46">
-        <v>1166.894450790961</v>
+        <v>3986290.204603985</v>
       </c>
       <c r="I46">
-        <v>1255.355964128851</v>
+        <v>1117166.966565589</v>
       </c>
       <c r="J46">
-        <v>-207.5806485990265</v>
+        <v>4841078.839419669</v>
       </c>
       <c r="K46">
-        <v>-1242.662495201958</v>
+        <v>3983404.139569419</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2049,28 +2055,28 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>45.99898924808407</v>
+        <v>1116398.34903346</v>
       </c>
       <c r="G47">
-        <v>560.1642187332515</v>
+        <v>4841749.742335348</v>
       </c>
       <c r="H47">
-        <v>1171.736331897916</v>
+        <v>3986298.192171166</v>
       </c>
       <c r="I47">
-        <v>1390.088935803982</v>
+        <v>1117253.331596893</v>
       </c>
       <c r="J47">
-        <v>-279.3737579151801</v>
+        <v>4841030.187869274</v>
       </c>
       <c r="K47">
-        <v>-1710.455474573648</v>
+        <v>3983041.394724357</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2084,28 +2090,28 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>45.40562363727267</v>
+        <v>1116397.834120456</v>
       </c>
       <c r="G48">
-        <v>577.6999848455924</v>
+        <v>4841766.255146687</v>
       </c>
       <c r="H48">
-        <v>1176.452633105209</v>
+        <v>3986305.972571366</v>
       </c>
       <c r="I48">
-        <v>1528.139582954552</v>
+        <v>1117341.82328764</v>
       </c>
       <c r="J48">
-        <v>-351.1668672313332</v>
+        <v>4840981.53631888</v>
       </c>
       <c r="K48">
-        <v>-2197.784038386902</v>
+        <v>3982663.501228367</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2119,28 +2125,28 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>44.8346389046381</v>
+        <v>1116397.338629214</v>
       </c>
       <c r="G49">
-        <v>595.2357509579335</v>
+        <v>4841782.767958025</v>
       </c>
       <c r="H49">
-        <v>1181.04970419635</v>
+        <v>3986313.556279715</v>
       </c>
       <c r="I49">
-        <v>1669.58960028694</v>
+        <v>1117432.494004859</v>
       </c>
       <c r="J49">
-        <v>-422.9599765474869</v>
+        <v>4840932.884768485</v>
       </c>
       <c r="K49">
-        <v>-2704.648186641726</v>
+        <v>3982270.459081449</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2154,28 +2160,28 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>44.28466284072026</v>
+        <v>1116396.861368951</v>
       </c>
       <c r="G50">
-        <v>612.7715170702745</v>
+        <v>4841799.280769365</v>
       </c>
       <c r="H50">
-        <v>1185.533425203872</v>
+        <v>3986320.9529964</v>
       </c>
       <c r="I50">
-        <v>1814.522694164507</v>
+        <v>1117525.397405075</v>
       </c>
       <c r="J50">
-        <v>-494.7530858636405</v>
+        <v>4840884.233218089</v>
       </c>
       <c r="K50">
-        <v>-3231.04791933812</v>
+        <v>3981862.268283601</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2189,28 +2195,28 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>43.75443818316516</v>
+        <v>1116396.401248638</v>
       </c>
       <c r="G51">
-        <v>630.3072831826155</v>
+        <v>4841815.793580703</v>
       </c>
       <c r="H51">
-        <v>1189.909251632028</v>
+        <v>3986328.17172127</v>
       </c>
       <c r="I51">
-        <v>1963.024632142808</v>
+        <v>1117620.588466051</v>
       </c>
       <c r="J51">
-        <v>-566.5461951797942</v>
+        <v>4840835.581667694</v>
       </c>
       <c r="K51">
-        <v>-3776.983236476082</v>
+        <v>3981438.928834825</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2224,28 +2230,28 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>43.24281052801042</v>
+        <v>1116395.957266499</v>
       </c>
       <c r="G52">
-        <v>647.8430492949566</v>
+        <v>4841832.306392042</v>
       </c>
       <c r="H52">
-        <v>1194.182254365186</v>
+        <v>3986335.220819676</v>
       </c>
       <c r="I52">
-        <v>2115.183293724548</v>
+        <v>1117718.12351933</v>
       </c>
       <c r="J52">
-        <v>-638.3393044959479</v>
+        <v>4840786.9301173</v>
       </c>
       <c r="K52">
-        <v>-4342.454138055611</v>
+        <v>3981000.440735119</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2259,28 +2265,28 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>42.74871775911791</v>
+        <v>1116395.528500849</v>
       </c>
       <c r="G53">
-        <v>665.3788154072976</v>
+        <v>4841848.81920338</v>
       </c>
       <c r="H53">
-        <v>1198.357154994147</v>
+        <v>3986342.108080745</v>
       </c>
       <c r="I53">
-        <v>2271.088722364334</v>
+        <v>1117818.060283565</v>
       </c>
       <c r="J53">
-        <v>-710.1324138121009</v>
+        <v>4840738.278566905</v>
       </c>
       <c r="K53">
-        <v>-4927.460624076704</v>
+        <v>3980546.803984486</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2294,28 +2300,28 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>42.27118077549716</v>
+        <v>1116395.11410204</v>
       </c>
       <c r="G54">
-        <v>682.9145815196384</v>
+        <v>4841865.33201472</v>
       </c>
       <c r="H54">
-        <v>1202.438357177545</v>
+        <v>3986348.840769115</v>
       </c>
       <c r="I54">
-        <v>2430.833178754011</v>
+        <v>1117920.45789868</v>
       </c>
       <c r="J54">
-        <v>-781.9255231282546</v>
+        <v>4840689.627016509</v>
       </c>
       <c r="K54">
-        <v>-5532.00269453937</v>
+        <v>3980078.018582923</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2329,28 +2335,28 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>281.5646150636646</v>
+        <v>1116579.941977666</v>
       </c>
       <c r="G55">
-        <v>-93.49689132027517</v>
+        <v>4841130.57847512</v>
       </c>
       <c r="H55">
-        <v>1445.241591350344</v>
+        <v>3985225.358655128</v>
       </c>
       <c r="I55">
-        <v>-1205.900558574221</v>
+        <v>1114860.823013832</v>
       </c>
       <c r="J55">
-        <v>2749.880164419066</v>
+        <v>4843220.026188743</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984373.596335527</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2364,28 +2370,28 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>281.5646150636646</v>
+        <v>1116579.941977666</v>
       </c>
       <c r="G56">
-        <v>-93.49689132027517</v>
+        <v>4841130.57847512</v>
       </c>
       <c r="H56">
-        <v>1445.241591350344</v>
+        <v>3985225.358655128</v>
       </c>
       <c r="I56">
-        <v>-1182.092870551549</v>
+        <v>1114890.436996101</v>
       </c>
       <c r="J56">
-        <v>2682.987145691206</v>
+        <v>4843171.37463314</v>
       </c>
       <c r="K56">
-        <v>364.1917311836512</v>
+        <v>3984677.392577223</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2399,28 +2405,28 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>281.5646150636646</v>
+        <v>1116579.941977666</v>
       </c>
       <c r="G57">
-        <v>-93.49689132027517</v>
+        <v>4841130.57847512</v>
       </c>
       <c r="H57">
-        <v>1445.241591350344</v>
+        <v>3985225.358655128</v>
       </c>
       <c r="I57">
-        <v>-1157.698940113989</v>
+        <v>1114920.780195438</v>
       </c>
       <c r="J57">
-        <v>2616.094126963347</v>
+        <v>4843122.723077536</v>
       </c>
       <c r="K57">
-        <v>710.2231932555208</v>
+        <v>3984966.040145758</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2434,28 +2440,28 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>281.5646150636646</v>
+        <v>1116579.941977666</v>
       </c>
       <c r="G58">
-        <v>-93.49689132027517</v>
+        <v>4841130.57847512</v>
       </c>
       <c r="H58">
-        <v>1445.241591350344</v>
+        <v>3985225.358655128</v>
       </c>
       <c r="I58">
-        <v>-1132.704331581409</v>
+        <v>1114951.870568144</v>
       </c>
       <c r="J58">
-        <v>2549.201108235487</v>
+        <v>4843074.071521931</v>
       </c>
       <c r="K58">
-        <v>1038.094386215611</v>
+        <v>3985239.539041129</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2469,28 +2475,28 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>281.5646150636646</v>
+        <v>1116579.941977666</v>
       </c>
       <c r="G59">
-        <v>-93.49689132027517</v>
+        <v>4841130.57847512</v>
       </c>
       <c r="H59">
-        <v>1445.241591350344</v>
+        <v>3985225.358655128</v>
       </c>
       <c r="I59">
-        <v>-1107.094253808333</v>
+        <v>1114983.726512675</v>
       </c>
       <c r="J59">
-        <v>2482.308089507628</v>
+        <v>4843025.419966328</v>
       </c>
       <c r="K59">
-        <v>1347.805310063921</v>
+        <v>3985497.889263338</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2504,28 +2510,28 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>281.5646150636646</v>
+        <v>1116579.941977666</v>
       </c>
       <c r="G60">
-        <v>-93.49689132027517</v>
+        <v>4841130.57847512</v>
       </c>
       <c r="H60">
-        <v>1445.241591350344</v>
+        <v>3985225.358655128</v>
       </c>
       <c r="I60">
-        <v>-1080.853551430934</v>
+        <v>1115016.366880533</v>
       </c>
       <c r="J60">
-        <v>2415.415070779768</v>
+        <v>4842976.768410724</v>
       </c>
       <c r="K60">
-        <v>1639.355964800452</v>
+        <v>3985741.090812384</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2539,28 +2545,28 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>281.5646150636646</v>
+        <v>1116579.941977666</v>
       </c>
       <c r="G61">
-        <v>-93.49689132027517</v>
+        <v>4841130.57847512</v>
       </c>
       <c r="H61">
-        <v>1445.241591350344</v>
+        <v>3985225.358655128</v>
       </c>
       <c r="I61">
-        <v>-1053.966695898495</v>
+        <v>1115049.810987421</v>
       </c>
       <c r="J61">
-        <v>2348.522052051908</v>
+        <v>4842928.116855119</v>
       </c>
       <c r="K61">
-        <v>1912.746350425202</v>
+        <v>3985969.143688266</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2574,28 +2580,28 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>281.5646150636646</v>
+        <v>1116579.941977666</v>
       </c>
       <c r="G62">
-        <v>-93.49689132027517</v>
+        <v>4841130.57847512</v>
       </c>
       <c r="H62">
-        <v>1445.241591350344</v>
+        <v>3985225.358655128</v>
       </c>
       <c r="I62">
-        <v>-1026.417776284024</v>
+        <v>1115084.078624673</v>
       </c>
       <c r="J62">
-        <v>2281.629033324049</v>
+        <v>4842879.465299516</v>
       </c>
       <c r="K62">
-        <v>2167.976466938172</v>
+        <v>3986182.047890985</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2609,28 +2615,28 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>281.5646150636646</v>
+        <v>1116579.941977666</v>
       </c>
       <c r="G63">
-        <v>-78.05792279894948</v>
+        <v>4841147.091314849</v>
       </c>
       <c r="H63">
-        <v>1445.241591350344</v>
+        <v>3985225.358655128</v>
       </c>
       <c r="I63">
-        <v>-998.190489868587</v>
+        <v>1115119.190070967</v>
       </c>
       <c r="J63">
-        <v>2214.736014596189</v>
+        <v>4842830.813743912</v>
       </c>
       <c r="K63">
-        <v>2405.046314339361</v>
+        <v>3986379.803420541</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2644,28 +2650,28 @@
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>218.5269876202795</v>
+        <v>1116531.261351197</v>
       </c>
       <c r="G64">
-        <v>-62.61895427762378</v>
+        <v>4841163.604154576</v>
       </c>
       <c r="H64">
-        <v>1780.527915432288</v>
+        <v>3985424.612913423</v>
       </c>
       <c r="I64">
-        <v>-969.2681324937973</v>
+        <v>1115155.166104324</v>
       </c>
       <c r="J64">
-        <v>2147.84299586833</v>
+        <v>4842782.162188308</v>
       </c>
       <c r="K64">
-        <v>2623.95589262877</v>
+        <v>3986562.410276935</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2679,28 +2685,28 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>181.4955438060488</v>
+        <v>1116502.66392523</v>
       </c>
       <c r="G65">
-        <v>-47.1799857562981</v>
+        <v>4841180.116994305</v>
       </c>
       <c r="H65">
-        <v>1980.241597249087</v>
+        <v>3985543.298939913</v>
       </c>
       <c r="I65">
-        <v>-939.6335886767347</v>
+        <v>1115192.028014405</v>
       </c>
       <c r="J65">
-        <v>2080.94997714047</v>
+        <v>4842733.510632704</v>
       </c>
       <c r="K65">
-        <v>2824.7052018064</v>
+        <v>3986729.868460165</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2714,28 +2720,28 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>158.1185797063329</v>
+        <v>1116484.611131946</v>
       </c>
       <c r="G66">
-        <v>-31.74101723497241</v>
+        <v>4841196.629834033</v>
       </c>
       <c r="H66">
-        <v>2122.963467511822</v>
+        <v>3985628.115821364</v>
       </c>
       <c r="I66">
-        <v>-909.2693214814566</v>
+        <v>1115229.797615109</v>
       </c>
       <c r="J66">
-        <v>2014.05695841261</v>
+        <v>4842684.8590771</v>
       </c>
       <c r="K66">
-        <v>3007.29424187225</v>
+        <v>3986882.177970232</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2749,28 +2755,28 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>141.8155798358592</v>
+        <v>1116472.021187191</v>
       </c>
       <c r="G67">
-        <v>-16.30204871364671</v>
+        <v>4841213.14267376</v>
       </c>
       <c r="H67">
-        <v>2234.100911422116</v>
+        <v>3985694.162681508</v>
       </c>
       <c r="I67">
-        <v>-878.1573621411089</v>
+        <v>1115268.497257483</v>
       </c>
       <c r="J67">
-        <v>1947.16393968475</v>
+        <v>4842636.207521496</v>
       </c>
       <c r="K67">
-        <v>3171.72301282632</v>
+        <v>3987019.338807137</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2784,28 +2790,28 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>129.6530537133441</v>
+        <v>1116462.628711378</v>
       </c>
       <c r="G68">
-        <v>-0.8630801923210338</v>
+        <v>4841229.655513488</v>
       </c>
       <c r="H68">
-        <v>2325.131098590579</v>
+        <v>3985748.260183029</v>
       </c>
       <c r="I68">
-        <v>-846.2792994244829</v>
+        <v>1115308.149842948</v>
       </c>
       <c r="J68">
-        <v>1880.270920956891</v>
+        <v>4842587.555965892</v>
       </c>
       <c r="K68">
-        <v>3317.991514668608</v>
+        <v>3987141.350970878</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2819,28 +2825,28 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>120.1436567319568</v>
+        <v>1116455.285106912</v>
       </c>
       <c r="G69">
-        <v>14.57588832900466</v>
+        <v>4841246.168353216</v>
       </c>
       <c r="H69">
-        <v>2402.227022240666</v>
+        <v>3985794.07681789</v>
       </c>
       <c r="I69">
-        <v>-813.61626874074</v>
+        <v>1115348.77883685</v>
       </c>
       <c r="J69">
-        <v>1813.377902229031</v>
+        <v>4842538.904410288</v>
       </c>
       <c r="K69">
-        <v>3446.099747399117</v>
+        <v>3987248.214461457</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2854,28 +2860,28 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>112.4498621721163</v>
+        <v>1116449.343596194</v>
       </c>
       <c r="G70">
-        <v>30.01485685033035</v>
+        <v>4841262.681192944</v>
       </c>
       <c r="H70">
-        <v>2469.093694746859</v>
+        <v>3985833.814404179</v>
       </c>
       <c r="I70">
-        <v>-780.1489409758468</v>
+        <v>1115390.408282349</v>
       </c>
       <c r="J70">
-        <v>1746.484883501172</v>
+        <v>4842490.252854684</v>
       </c>
       <c r="K70">
-        <v>3556.047711017846</v>
+        <v>3987339.929278872</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2889,28 +2895,28 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>106.0612712348678</v>
+        <v>1116444.410025219</v>
       </c>
       <c r="G71">
-        <v>45.45382537165603</v>
+        <v>4841279.194032672</v>
       </c>
       <c r="H71">
-        <v>2528.130349865278</v>
+        <v>3985868.898760691</v>
       </c>
       <c r="I71">
-        <v>-745.8575110541204</v>
+        <v>1115433.062814645</v>
       </c>
       <c r="J71">
-        <v>1679.591864773312</v>
+        <v>4842441.60129908</v>
       </c>
       <c r="K71">
-        <v>3647.835405524796</v>
+        <v>3987416.495423124</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2924,28 +2930,28 @@
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>100.6474210972927</v>
+        <v>1116440.229195023</v>
       </c>
       <c r="G72">
-        <v>60.89279389298174</v>
+        <v>4841295.706872399</v>
       </c>
       <c r="H72">
-        <v>2580.980036076179</v>
+        <v>3985900.306319756</v>
       </c>
       <c r="I72">
-        <v>-710.7216862181083</v>
+        <v>1115476.767675557</v>
       </c>
       <c r="J72">
-        <v>1612.698846045452</v>
+        <v>4842392.949743477</v>
       </c>
       <c r="K72">
-        <v>3721.462830919964</v>
+        <v>3987477.912894213</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2959,28 +2965,28 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>95.98391738097426</v>
+        <v>1116436.627817692</v>
       </c>
       <c r="G73">
-        <v>76.33176241430742</v>
+        <v>4841312.219712128</v>
       </c>
       <c r="H73">
-        <v>2628.81739581731</v>
+        <v>3985928.735148937</v>
       </c>
       <c r="I73">
-        <v>-674.7206740198756</v>
+        <v>1115521.548728462</v>
       </c>
       <c r="J73">
-        <v>1545.805827317593</v>
+        <v>4842344.298187872</v>
       </c>
       <c r="K73">
-        <v>3776.929987203353</v>
+        <v>3987524.181692139</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2994,28 +3000,28 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>91.91243766530289</v>
+        <v>1116433.483629193</v>
       </c>
       <c r="G74">
-        <v>91.7707309356331</v>
+        <v>4841328.732551856</v>
       </c>
       <c r="H74">
-        <v>2672.511361768291</v>
+        <v>3985954.701638329</v>
       </c>
       <c r="I74">
-        <v>-637.8331700165854</v>
+        <v>1115567.432473597</v>
       </c>
       <c r="J74">
-        <v>1478.912808589733</v>
+        <v>4842295.646632268</v>
       </c>
       <c r="K74">
-        <v>3814.236874374961</v>
+        <v>3987555.301816903</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3029,28 +3035,28 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>88.31770589067655</v>
+        <v>1116430.70760792</v>
       </c>
       <c r="G75">
-        <v>107.2096994569588</v>
+        <v>4841345.245391583</v>
       </c>
       <c r="H75">
-        <v>2712.722824216545</v>
+        <v>3985978.598542406</v>
       </c>
       <c r="I75">
-        <v>-600.0373451630953</v>
+        <v>1115614.446063743</v>
       </c>
       <c r="J75">
-        <v>1412.019789861874</v>
+        <v>4842246.995076665</v>
       </c>
       <c r="K75">
-        <v>3833.38349243479</v>
+        <v>3987571.273268503</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3064,28 +3070,28 @@
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>85.11355278177621</v>
+        <v>1116428.233209898</v>
       </c>
       <c r="G76">
-        <v>122.6486679782845</v>
+        <v>4841361.758231311</v>
       </c>
       <c r="H76">
-        <v>2749.966163772149</v>
+        <v>3986000.731547741</v>
       </c>
       <c r="I76">
-        <v>-561.3108328941095</v>
+        <v>1115662.617320294</v>
       </c>
       <c r="J76">
-        <v>1345.126771134014</v>
+        <v>4842198.34352106</v>
       </c>
       <c r="K76">
-        <v>3834.369841382838</v>
+        <v>3987572.09604694</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3099,28 +3105,28 @@
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>82.23411518473512</v>
+        <v>1116426.009572497</v>
       </c>
       <c r="G77">
-        <v>138.0876364996102</v>
+        <v>4841378.271071039</v>
       </c>
       <c r="H77">
-        <v>2784.649592714054</v>
+        <v>3986021.343247093</v>
       </c>
       <c r="I77">
-        <v>-521.630715888238</v>
+        <v>1115711.974749722</v>
       </c>
       <c r="J77">
-        <v>1278.233752406154</v>
+        <v>4842149.691965456</v>
       </c>
       <c r="K77">
-        <v>3817.195921219106</v>
+        <v>3987557.770152214</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3134,28 +3140,28 @@
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>79.62807893515267</v>
+        <v>1116423.997068499</v>
       </c>
       <c r="G78">
-        <v>153.5266050209359</v>
+        <v>4841394.783910767</v>
       </c>
       <c r="H78">
-        <v>2817.102501177148</v>
+        <v>3986040.629390729</v>
       </c>
       <c r="I78">
-        <v>-480.9735125061347</v>
+        <v>1115762.547560442</v>
       </c>
       <c r="J78">
-        <v>1211.340733678295</v>
+        <v>4842101.040409853</v>
       </c>
       <c r="K78">
-        <v>3781.861731943594</v>
+        <v>3987528.295584325</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3169,28 +3175,28 @@
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>77.25479632692998</v>
+        <v>1116422.164307831</v>
       </c>
       <c r="G79">
-        <v>168.9655735422616</v>
+        <v>4841411.296750495</v>
       </c>
       <c r="H79">
-        <v>2847.594528914689</v>
+        <v>3986058.750220403</v>
       </c>
       <c r="I79">
-        <v>-439.3151628946887</v>
+        <v>1115814.365680099</v>
       </c>
       <c r="J79">
-        <v>1144.447714950435</v>
+        <v>4842052.388854248</v>
       </c>
       <c r="K79">
-        <v>3728.367273556302</v>
+        <v>3987483.672343273</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3204,28 +3210,28 @@
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>75.08159783285421</v>
+        <v>1116420.486061546</v>
       </c>
       <c r="G80">
-        <v>184.4045420635872</v>
+        <v>4841427.809590222</v>
       </c>
       <c r="H80">
-        <v>2876.349196372354</v>
+        <v>3986075.838570047</v>
       </c>
       <c r="I80">
-        <v>-396.6310147490398</v>
+        <v>1115867.45977328</v>
       </c>
       <c r="J80">
-        <v>1077.554696222576</v>
+        <v>4842003.737298644</v>
       </c>
       <c r="K80">
-        <v>3656.71254605723</v>
+        <v>3987423.900429058</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3239,28 +3245,28 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>73.08188730877421</v>
+        <v>1116418.941790845</v>
       </c>
       <c r="G81">
-        <v>199.8435105849129</v>
+        <v>4841444.32242995</v>
       </c>
       <c r="H81">
-        <v>2903.55385747623</v>
+        <v>3986092.005780521</v>
       </c>
       <c r="I81">
-        <v>-352.8958087240007</v>
+        <v>1115921.861259661</v>
       </c>
       <c r="J81">
-        <v>1010.661677494716</v>
+        <v>4841955.085743041</v>
       </c>
       <c r="K81">
-        <v>3566.897549446378</v>
+        <v>3987348.97984168</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3274,28 +3280,28 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>71.23376461093983</v>
+        <v>1116417.514583408</v>
       </c>
       <c r="G82">
-        <v>215.2824791062386</v>
+        <v>4841460.835269679</v>
       </c>
       <c r="H82">
-        <v>2929.367104472996</v>
+        <v>3986107.346100167</v>
       </c>
       <c r="I82">
-        <v>-308.0836634862463</v>
+        <v>1115977.602332596</v>
       </c>
       <c r="J82">
-        <v>943.7686587668563</v>
+        <v>4841906.434187436</v>
       </c>
       <c r="K82">
-        <v>3458.922283723745</v>
+        <v>3987258.91058114</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3309,28 +3315,28 @@
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>69.51901143237072</v>
+        <v>1116416.190370198</v>
       </c>
       <c r="G83">
-        <v>230.7214476275643</v>
+        <v>4841477.348109406</v>
       </c>
       <c r="H83">
-        <v>2953.924369583699</v>
+        <v>3986121.940013769</v>
       </c>
       <c r="I83">
-        <v>-262.1680603984299</v>
+        <v>1116034.715978171</v>
       </c>
       <c r="J83">
-        <v>876.8756400389966</v>
+        <v>4841857.782631833</v>
       </c>
       <c r="K83">
-        <v>3332.786748889332</v>
+        <v>3987153.692647436</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3344,28 +3350,28 @@
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>67.92233241131616</v>
+        <v>1116414.957339417</v>
       </c>
       <c r="G84">
-        <v>246.16041614889</v>
+        <v>4841493.860949134</v>
       </c>
       <c r="H84">
-        <v>2977.342226012594</v>
+        <v>3986135.856798553</v>
       </c>
       <c r="I84">
-        <v>-215.1218278261566</v>
+        <v>1116093.235994724</v>
       </c>
       <c r="J84">
-        <v>809.9826213111371</v>
+        <v>4841809.131076228</v>
       </c>
       <c r="K84">
-        <v>3188.490944943141</v>
+        <v>3987033.326040569</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3379,28 +3385,28 @@
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>66.43077894168036</v>
+        <v>1116413.80549154</v>
       </c>
       <c r="G85">
-        <v>261.5993846702157</v>
+        <v>4841510.373788862</v>
       </c>
       <c r="H85">
-        <v>2999.721734680745</v>
+        <v>3986149.156513097</v>
       </c>
       <c r="I85">
-        <v>-166.9171250585313</v>
+        <v>1116153.197012848</v>
       </c>
       <c r="J85">
-        <v>743.0896025832774</v>
+        <v>4841760.479520625</v>
       </c>
       <c r="K85">
-        <v>3026.034871885167</v>
+        <v>3986897.810760539</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3414,28 +3420,28 @@
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>65.03330590973954</v>
+        <v>1116412.726297011</v>
       </c>
       <c r="G86">
-        <v>277.0383531915414</v>
+        <v>4841526.886628591</v>
       </c>
       <c r="H86">
-        <v>3021.151079998328</v>
+        <v>3986161.89156371</v>
       </c>
       <c r="I86">
-        <v>-117.5254258327664</v>
+        <v>1116214.634515879</v>
       </c>
       <c r="J86">
-        <v>676.196583855418</v>
+        <v>4841711.827965021</v>
       </c>
       <c r="K86">
-        <v>2845.418529715415</v>
+        <v>3986747.146807346</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3449,28 +3455,28 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>63.72042659170954</v>
+        <v>1116411.712429734</v>
       </c>
       <c r="G87">
-        <v>292.4773217128671</v>
+        <v>4841543.399468319</v>
       </c>
       <c r="H87">
-        <v>3041.707668552277</v>
+        <v>3986174.107951649</v>
       </c>
       <c r="I87">
-        <v>-66.917501453097</v>
+        <v>1116277.584860902</v>
       </c>
       <c r="J87">
-        <v>609.3035651275583</v>
+        <v>4841663.176409417</v>
       </c>
       <c r="K87">
-        <v>2646.641918433882</v>
+        <v>3986581.33418099</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3484,28 +3490,28 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>62.48394102762953</v>
+        <v>1116410.757557314</v>
       </c>
       <c r="G88">
-        <v>307.9162902341928</v>
+        <v>4841559.912308046</v>
       </c>
       <c r="H88">
-        <v>3061.459816911278</v>
+        <v>3986185.846276144</v>
       </c>
       <c r="I88">
-        <v>-15.06340349401521</v>
+        <v>1116342.085300257</v>
       </c>
       <c r="J88">
-        <v>542.4105463996985</v>
+        <v>4841614.524853813</v>
       </c>
       <c r="K88">
-        <v>2429.705038040569</v>
+        <v>3986400.372881471</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3519,28 +3525,28 @@
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>61.31672007971567</v>
+        <v>1116409.856174294</v>
       </c>
       <c r="G89">
-        <v>323.3552587555185</v>
+        <v>4841576.425147774</v>
       </c>
       <c r="H89">
-        <v>3080.46812145317</v>
+        <v>3986197.142548467</v>
       </c>
       <c r="I89">
-        <v>38.06755392241374</v>
+        <v>1116408.174003592</v>
       </c>
       <c r="J89">
-        <v>475.5175276718391</v>
+        <v>4841565.873298209</v>
       </c>
       <c r="K89">
-        <v>2194.607888535475</v>
+        <v>3986204.262908789</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3554,28 +3560,28 @@
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>60.21253217391508</v>
+        <v>1116409.00346836</v>
       </c>
       <c r="G90">
-        <v>338.7942272768441</v>
+        <v>4841592.937987503</v>
       </c>
       <c r="H90">
-        <v>3098.78657949931</v>
+        <v>3986208.028858194</v>
       </c>
       <c r="I90">
-        <v>92.50681228563762</v>
+        <v>1116475.890080447</v>
       </c>
       <c r="J90">
-        <v>408.6245089439794</v>
+        <v>4841517.221742605</v>
       </c>
       <c r="K90">
-        <v>1941.350469918602</v>
+        <v>3985993.004262944</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3589,28 +3595,28 @@
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>59.16590310325729</v>
+        <v>1116408.195212071</v>
       </c>
       <c r="G91">
-        <v>354.2331957981698</v>
+        <v>4841609.45082723</v>
       </c>
       <c r="H91">
-        <v>3116.463514043314</v>
+        <v>3986218.533922757</v>
       </c>
       <c r="I91">
-        <v>148.286587302857</v>
+        <v>1116545.273603396</v>
       </c>
       <c r="J91">
-        <v>341.7314902161199</v>
+        <v>4841468.570187001</v>
       </c>
       <c r="K91">
-        <v>1669.93278218995</v>
+        <v>3985766.596943936</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3624,28 +3630,28 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>58.17200168937324</v>
+        <v>1116407.427674563</v>
       </c>
       <c r="G92">
-        <v>369.6721643194956</v>
+        <v>4841625.963666958</v>
       </c>
       <c r="H92">
-        <v>3133.542341969026</v>
+        <v>3986228.68354398</v>
       </c>
       <c r="I92">
-        <v>205.4398879634228</v>
+        <v>1116616.365631766</v>
       </c>
       <c r="J92">
-        <v>274.8384714882602</v>
+        <v>4841419.918631396</v>
       </c>
       <c r="K92">
-        <v>1380.354825349515</v>
+        <v>3985525.040951765</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3659,28 +3665,28 @@
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>57.22654585028336</v>
+        <v>1116406.697549011</v>
       </c>
       <c r="G93">
-        <v>385.1111328408212</v>
+        <v>4841642.476506686</v>
       </c>
       <c r="H93">
-        <v>3150.062216507113</v>
+        <v>3986238.500989882</v>
       </c>
       <c r="I93">
-        <v>264.0005360726831</v>
+        <v>1116689.208235931</v>
       </c>
       <c r="J93">
-        <v>207.9454527604005</v>
+        <v>4841371.267075793</v>
       </c>
       <c r="K93">
-        <v>1072.616599397302</v>
+        <v>3985268.336286431</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3694,28 +3700,28 @@
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>56.32572490681646</v>
+        <v>1116406.001892628</v>
       </c>
       <c r="G94">
-        <v>400.5501013621469</v>
+        <v>4841658.989346413</v>
       </c>
       <c r="H94">
-        <v>3166.058567854403</v>
+        <v>3986248.00731595</v>
       </c>
       <c r="I94">
-        <v>324.0031862668246</v>
+        <v>1116763.84452221</v>
       </c>
       <c r="J94">
-        <v>141.052434032541</v>
+        <v>4841322.61552019</v>
       </c>
       <c r="K94">
-        <v>746.7181043333085</v>
+        <v>3984996.482947934</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3729,28 +3735,28 @@
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>55.46613491196305</v>
+        <v>1116405.338076727</v>
       </c>
       <c r="G95">
-        <v>415.9890698834726</v>
+        <v>4841675.502186142</v>
       </c>
       <c r="H95">
-        <v>3181.563560733168</v>
+        <v>3986257.221637066</v>
       </c>
       <c r="I95">
-        <v>385.4833465205722</v>
+        <v>1116840.318658374</v>
       </c>
       <c r="J95">
-        <v>74.15941530468132</v>
+        <v>4841273.963964585</v>
       </c>
       <c r="K95">
-        <v>402.6593401575341</v>
+        <v>3984709.480936274</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3764,28 +3770,28 @@
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>54.64472450031818</v>
+        <v>1116404.7037449</v>
       </c>
       <c r="G96">
-        <v>431.4280384047983</v>
+        <v>4841692.01502587</v>
       </c>
       <c r="H96">
-        <v>3196.606483748396</v>
+        <v>3986266.161358888</v>
       </c>
       <c r="I96">
-        <v>448.4773991598575</v>
+        <v>1116918.675899787</v>
       </c>
       <c r="J96">
-        <v>7.266396576821577</v>
+        <v>4841225.312408981</v>
       </c>
       <c r="K96">
-        <v>40.44030686997994</v>
+        <v>3984407.330251451</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3799,28 +3805,28 @@
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>53.85874929371901</v>
+        <v>1116404.096777807</v>
       </c>
       <c r="G97">
-        <v>446.867006926124</v>
+        <v>4841708.527865597</v>
       </c>
       <c r="H97">
-        <v>3211.214082389866</v>
+        <v>3986274.842375749</v>
       </c>
       <c r="I97">
-        <v>513.022622391919</v>
+        <v>1116998.962616182</v>
       </c>
       <c r="J97">
-        <v>-59.62662215103784</v>
+        <v>4841176.660853378</v>
       </c>
       <c r="K97">
-        <v>-339.9389955293533</v>
+        <v>3984090.030893465</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3834,28 +3840,28 @@
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>53.10573331030134</v>
+        <v>1116403.51526338</v>
       </c>
       <c r="G98">
-        <v>462.3059754474496</v>
+        <v>4841725.040705325</v>
       </c>
       <c r="H98">
-        <v>3225.410845192418</v>
+        <v>3986283.279240719</v>
       </c>
       <c r="I98">
-        <v>579.1572123655536</v>
+        <v>1117081.226319106</v>
       </c>
       <c r="J98">
-        <v>-126.5196408788976</v>
+        <v>4841128.009297773</v>
       </c>
       <c r="K98">
-        <v>-738.4785670404677</v>
+        <v>3983757.582862316</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3869,28 +3875,28 @@
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>52.38343614044655</v>
+        <v>1116402.957471468</v>
       </c>
       <c r="G99">
-        <v>477.7449439687754</v>
+        <v>4841741.553545053</v>
       </c>
       <c r="H99">
-        <v>3239.21925074537</v>
+        <v>3986291.485312393</v>
       </c>
       <c r="I99">
-        <v>646.9203057745823</v>
+        <v>1117165.515690033</v>
       </c>
       <c r="J99">
-        <v>-193.4126596067573</v>
+        <v>4841079.357742169</v>
       </c>
       <c r="K99">
-        <v>-1155.178407663363</v>
+        <v>3983409.986158004</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3904,28 +3910,28 @@
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>51.68982489829272</v>
+        <v>1116402.421832182</v>
       </c>
       <c r="G100">
-        <v>493.183912490101</v>
+        <v>4841758.066384781</v>
       </c>
       <c r="H100">
-        <v>3252.659981807923</v>
+        <v>3986299.47288214</v>
       </c>
       <c r="I100">
-        <v>716.3520030179054</v>
+        <v>1117251.880609174</v>
       </c>
       <c r="J100">
-        <v>-260.305678334617</v>
+        <v>4841030.706186565</v>
       </c>
       <c r="K100">
-        <v>-1590.038517398038</v>
+        <v>3983047.240780529</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3939,28 +3945,28 @@
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>51.02305014900218</v>
+        <v>1116401.9069173</v>
       </c>
       <c r="G101">
-        <v>508.6228810114267</v>
+        <v>4841774.579224509</v>
       </c>
       <c r="H101">
-        <v>3265.752111651047</v>
+        <v>3986307.253284841</v>
       </c>
       <c r="I101">
-        <v>787.4933919298549</v>
+        <v>1117340.372184995</v>
       </c>
       <c r="J101">
-        <v>-327.1986970624762</v>
+        <v>4840982.054630961</v>
       </c>
       <c r="K101">
-        <v>-2043.05889624449</v>
+        <v>3982669.34672989</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3974,28 +3980,28 @@
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>50.38142516262906</v>
+        <v>1116401.411424249</v>
       </c>
       <c r="G102">
-        <v>524.0618495327525</v>
+        <v>4841791.092064236</v>
       </c>
       <c r="H102">
-        <v>3278.513266839828</v>
+        <v>3986314.836995626</v>
       </c>
       <c r="I102">
-        <v>860.3865720948841</v>
+        <v>1117431.04278446</v>
       </c>
       <c r="J102">
-        <v>-394.0917157903359</v>
+        <v>4840933.403075358</v>
       </c>
       <c r="K102">
-        <v>-2514.239544202725</v>
+        <v>3982276.304006089</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4009,28 +4015,28 @@
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>49.76340796471096</v>
+        <v>1116400.934162246</v>
       </c>
       <c r="G103">
-        <v>539.5008180540781</v>
+        <v>4841807.604903965</v>
       </c>
       <c r="H103">
-        <v>3290.959769942737</v>
+        <v>3986322.233714687</v>
       </c>
       <c r="I103">
-        <v>935.0746797609805</v>
+        <v>1117523.946064021</v>
       </c>
       <c r="J103">
-        <v>-460.9847345181956</v>
+        <v>4840884.751519753</v>
       </c>
       <c r="K103">
-        <v>-3003.58046127274</v>
+        <v>3981868.112609125</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4044,28 +4050,28 @@
         <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>49.16758574874952</v>
+        <v>1116400.474040254</v>
       </c>
       <c r="G104">
-        <v>554.9397865754038</v>
+        <v>4841824.117743693</v>
       </c>
       <c r="H104">
-        <v>3303.106765066755</v>
+        <v>3986329.452441876</v>
       </c>
       <c r="I104">
-        <v>1011.601913366555</v>
+        <v>1117619.137001372</v>
       </c>
       <c r="J104">
-        <v>-527.8777532460554</v>
+        <v>4840836.099964149</v>
       </c>
       <c r="K104">
-        <v>-3511.081647454536</v>
+        <v>3981444.772538998</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4079,28 +4085,28 @@
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>48.59266129192194</v>
+        <v>1116400.030056495</v>
       </c>
       <c r="G105">
-        <v>570.3787550967295</v>
+        <v>4841840.63058342</v>
       </c>
       <c r="H105">
-        <v>3314.968328640352</v>
+        <v>3986336.501542547</v>
       </c>
       <c r="I105">
-        <v>1090.013559695905</v>
+        <v>1117716.671927981</v>
       </c>
       <c r="J105">
-        <v>-594.7707719739151</v>
+        <v>4840787.448408546</v>
       </c>
       <c r="K105">
-        <v>-4036.743102748111</v>
+        <v>3981006.283795708</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4114,28 +4120,28 @@
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>48.03744107675969</v>
+        <v>1116399.601289281</v>
       </c>
       <c r="G106">
-        <v>585.8177236180552</v>
+        <v>4841857.143423148</v>
       </c>
       <c r="H106">
-        <v>3326.557567476917</v>
+        <v>3986343.388805829</v>
       </c>
       <c r="I106">
-        <v>1170.35602067872</v>
+        <v>1117816.608562427</v>
       </c>
       <c r="J106">
-        <v>-661.6637907017742</v>
+        <v>4840738.796852942</v>
       </c>
       <c r="K106">
-        <v>-4580.564827153463</v>
+        <v>3980552.646379255</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4149,28 +4155,3738 @@
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>47.50082487128854</v>
+        <v>1116399.18688896</v>
       </c>
       <c r="G107">
-        <v>601.2566921393808</v>
+        <v>4841873.656262877</v>
       </c>
       <c r="H107">
-        <v>3337.886705831877</v>
+        <v>3986350.121496362</v>
       </c>
       <c r="I107">
-        <v>1252.67684084953</v>
+        <v>1117919.006044557</v>
       </c>
       <c r="J107">
-        <v>-728.556809429634</v>
+        <v>4840690.145297337</v>
       </c>
       <c r="K107">
-        <v>-5142.546820670598</v>
+        <v>3980083.860289638</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116575.851406068</v>
+      </c>
+      <c r="G108">
+        <v>4841126.181424515</v>
+      </c>
+      <c r="H108">
+        <v>3985226.845293205</v>
+      </c>
+      <c r="I108">
+        <v>1114859.859115132</v>
+      </c>
+      <c r="J108">
+        <v>4843222.647680187</v>
+      </c>
+      <c r="K108">
+        <v>3984367.857715393</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116575.851406068</v>
+      </c>
+      <c r="G109">
+        <v>4841126.181424515</v>
+      </c>
+      <c r="H109">
+        <v>3985226.845293205</v>
+      </c>
+      <c r="I109">
+        <v>1114889.473071796</v>
+      </c>
+      <c r="J109">
+        <v>4843173.996098249</v>
+      </c>
+      <c r="K109">
+        <v>3984671.653519538</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116575.851406068</v>
+      </c>
+      <c r="G110">
+        <v>4841126.181424515</v>
+      </c>
+      <c r="H110">
+        <v>3985226.845293205</v>
+      </c>
+      <c r="I110">
+        <v>1114919.816244899</v>
+      </c>
+      <c r="J110">
+        <v>4843125.344516311</v>
+      </c>
+      <c r="K110">
+        <v>3984960.300672339</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116575.851406068</v>
+      </c>
+      <c r="G111">
+        <v>4841126.181424515</v>
+      </c>
+      <c r="H111">
+        <v>3985226.845293205</v>
+      </c>
+      <c r="I111">
+        <v>1114950.906590724</v>
+      </c>
+      <c r="J111">
+        <v>4843076.692934373</v>
+      </c>
+      <c r="K111">
+        <v>3985233.799173795</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116575.851406068</v>
+      </c>
+      <c r="G112">
+        <v>4841126.181424515</v>
+      </c>
+      <c r="H112">
+        <v>3985226.845293205</v>
+      </c>
+      <c r="I112">
+        <v>1114982.762507712</v>
+      </c>
+      <c r="J112">
+        <v>4843028.041352436</v>
+      </c>
+      <c r="K112">
+        <v>3985492.149023906</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116575.851406068</v>
+      </c>
+      <c r="G113">
+        <v>4841126.181424515</v>
+      </c>
+      <c r="H113">
+        <v>3985226.845293205</v>
+      </c>
+      <c r="I113">
+        <v>1115015.40284735</v>
+      </c>
+      <c r="J113">
+        <v>4842979.389770498</v>
+      </c>
+      <c r="K113">
+        <v>3985735.350222673</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116575.851406068</v>
+      </c>
+      <c r="G114">
+        <v>4841126.181424515</v>
+      </c>
+      <c r="H114">
+        <v>3985226.845293205</v>
+      </c>
+      <c r="I114">
+        <v>1115048.846925323</v>
+      </c>
+      <c r="J114">
+        <v>4842930.73818856</v>
+      </c>
+      <c r="K114">
+        <v>3985963.402770095</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116575.851406068</v>
+      </c>
+      <c r="G115">
+        <v>4841126.181424515</v>
+      </c>
+      <c r="H115">
+        <v>3985226.845293205</v>
+      </c>
+      <c r="I115">
+        <v>1115083.114532947</v>
+      </c>
+      <c r="J115">
+        <v>4842882.086606623</v>
+      </c>
+      <c r="K115">
+        <v>3986176.306666172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116575.851406068</v>
+      </c>
+      <c r="G116">
+        <v>4841142.694249245</v>
+      </c>
+      <c r="H116">
+        <v>3985226.845293205</v>
+      </c>
+      <c r="I116">
+        <v>1115118.225948884</v>
+      </c>
+      <c r="J116">
+        <v>4842833.435024685</v>
+      </c>
+      <c r="K116">
+        <v>3986374.061910904</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116527.17095794</v>
+      </c>
+      <c r="G117">
+        <v>4841159.207073975</v>
+      </c>
+      <c r="H117">
+        <v>3985426.09962583</v>
+      </c>
+      <c r="I117">
+        <v>1115154.201951137</v>
+      </c>
+      <c r="J117">
+        <v>4842784.783442748</v>
+      </c>
+      <c r="K117">
+        <v>3986556.668504293</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116498.573636739</v>
+      </c>
+      <c r="G118">
+        <v>4841175.719898705</v>
+      </c>
+      <c r="H118">
+        <v>3985544.785696594</v>
+      </c>
+      <c r="I118">
+        <v>1115191.063829347</v>
+      </c>
+      <c r="J118">
+        <v>4842736.131860809</v>
+      </c>
+      <c r="K118">
+        <v>3986724.126446337</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116480.520909591</v>
+      </c>
+      <c r="G119">
+        <v>4841192.232723435</v>
+      </c>
+      <c r="H119">
+        <v>3985629.602609684</v>
+      </c>
+      <c r="I119">
+        <v>1115228.833397396</v>
+      </c>
+      <c r="J119">
+        <v>4842687.480278873</v>
+      </c>
+      <c r="K119">
+        <v>3986876.435737035</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116467.931010959</v>
+      </c>
+      <c r="G120">
+        <v>4841208.745548164</v>
+      </c>
+      <c r="H120">
+        <v>3985695.649494467</v>
+      </c>
+      <c r="I120">
+        <v>1115267.533006311</v>
+      </c>
+      <c r="J120">
+        <v>4842638.828696935</v>
+      </c>
+      <c r="K120">
+        <v>3987013.596376389</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116458.538569555</v>
+      </c>
+      <c r="G121">
+        <v>4841225.258372894</v>
+      </c>
+      <c r="H121">
+        <v>3985749.747016167</v>
+      </c>
+      <c r="I121">
+        <v>1115307.185557492</v>
+      </c>
+      <c r="J121">
+        <v>4842590.177114998</v>
+      </c>
+      <c r="K121">
+        <v>3987135.608364399</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>14</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116451.194991993</v>
+      </c>
+      <c r="G122">
+        <v>4841241.771197624</v>
+      </c>
+      <c r="H122">
+        <v>3985795.56366812</v>
+      </c>
+      <c r="I122">
+        <v>1115347.814516267</v>
+      </c>
+      <c r="J122">
+        <v>4842541.52553306</v>
+      </c>
+      <c r="K122">
+        <v>3987242.471701063</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>14</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116445.253503041</v>
+      </c>
+      <c r="G123">
+        <v>4841258.284022354</v>
+      </c>
+      <c r="H123">
+        <v>3985835.301269233</v>
+      </c>
+      <c r="I123">
+        <v>1115389.443925774</v>
+      </c>
+      <c r="J123">
+        <v>4842492.873951122</v>
+      </c>
+      <c r="K123">
+        <v>3987334.186386383</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116440.31995014</v>
+      </c>
+      <c r="G124">
+        <v>4841274.796847085</v>
+      </c>
+      <c r="H124">
+        <v>3985870.385638833</v>
+      </c>
+      <c r="I124">
+        <v>1115432.098421191</v>
+      </c>
+      <c r="J124">
+        <v>4842444.222369185</v>
+      </c>
+      <c r="K124">
+        <v>3987410.752420359</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116436.13913526</v>
+      </c>
+      <c r="G125">
+        <v>4841291.309671814</v>
+      </c>
+      <c r="H125">
+        <v>3985901.793209614</v>
+      </c>
+      <c r="I125">
+        <v>1115475.803244316</v>
+      </c>
+      <c r="J125">
+        <v>4842395.570787247</v>
+      </c>
+      <c r="K125">
+        <v>3987472.169802989</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>14</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116432.537771123</v>
+      </c>
+      <c r="G126">
+        <v>4841307.822496544</v>
+      </c>
+      <c r="H126">
+        <v>3985930.222049399</v>
+      </c>
+      <c r="I126">
+        <v>1115520.584258504</v>
+      </c>
+      <c r="J126">
+        <v>4842346.919205309</v>
+      </c>
+      <c r="K126">
+        <v>3987518.438534276</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116429.393594143</v>
+      </c>
+      <c r="G127">
+        <v>4841324.335321274</v>
+      </c>
+      <c r="H127">
+        <v>3985956.188548478</v>
+      </c>
+      <c r="I127">
+        <v>1115566.467963967</v>
+      </c>
+      <c r="J127">
+        <v>4842298.267623371</v>
+      </c>
+      <c r="K127">
+        <v>3987549.558614217</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>14</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116426.61758304</v>
+      </c>
+      <c r="G128">
+        <v>4841340.848146003</v>
+      </c>
+      <c r="H128">
+        <v>3985980.085461469</v>
+      </c>
+      <c r="I128">
+        <v>1115613.481513466</v>
+      </c>
+      <c r="J128">
+        <v>4842249.616041434</v>
+      </c>
+      <c r="K128">
+        <v>3987565.530042814</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>14</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116424.143194083</v>
+      </c>
+      <c r="G129">
+        <v>4841357.360970733</v>
+      </c>
+      <c r="H129">
+        <v>3986002.218475061</v>
+      </c>
+      <c r="I129">
+        <v>1115661.65272837</v>
+      </c>
+      <c r="J129">
+        <v>4842200.964459497</v>
+      </c>
+      <c r="K129">
+        <v>3987566.352820066</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>14</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116421.919564828</v>
+      </c>
+      <c r="G130">
+        <v>4841373.873795463</v>
+      </c>
+      <c r="H130">
+        <v>3986022.830182102</v>
+      </c>
+      <c r="I130">
+        <v>1115711.010115123</v>
+      </c>
+      <c r="J130">
+        <v>4842152.312877559</v>
+      </c>
+      <c r="K130">
+        <v>3987552.026945973</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>14</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116419.907068203</v>
+      </c>
+      <c r="G131">
+        <v>4841390.386620193</v>
+      </c>
+      <c r="H131">
+        <v>3986042.116332932</v>
+      </c>
+      <c r="I131">
+        <v>1115761.582882118</v>
+      </c>
+      <c r="J131">
+        <v>4842103.661295622</v>
+      </c>
+      <c r="K131">
+        <v>3987522.552420536</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>14</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116418.074314249</v>
+      </c>
+      <c r="G132">
+        <v>4841406.899444923</v>
+      </c>
+      <c r="H132">
+        <v>3986060.237169366</v>
+      </c>
+      <c r="I132">
+        <v>1115813.400956973</v>
+      </c>
+      <c r="J132">
+        <v>4842055.009713684</v>
+      </c>
+      <c r="K132">
+        <v>3987477.929243755</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>14</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116416.396074112</v>
+      </c>
+      <c r="G133">
+        <v>4841423.412269652</v>
+      </c>
+      <c r="H133">
+        <v>3986077.325525384</v>
+      </c>
+      <c r="I133">
+        <v>1115866.49500425</v>
+      </c>
+      <c r="J133">
+        <v>4842006.358131746</v>
+      </c>
+      <c r="K133">
+        <v>3987418.157415628</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>14</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116414.851809069</v>
+      </c>
+      <c r="G134">
+        <v>4841439.925094382</v>
+      </c>
+      <c r="H134">
+        <v>3986093.492741889</v>
+      </c>
+      <c r="I134">
+        <v>1115920.896443597</v>
+      </c>
+      <c r="J134">
+        <v>4841957.706549808</v>
+      </c>
+      <c r="K134">
+        <v>3987343.236936157</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>14</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116413.42460686</v>
+      </c>
+      <c r="G135">
+        <v>4841456.437919112</v>
+      </c>
+      <c r="H135">
+        <v>3986108.833067258</v>
+      </c>
+      <c r="I135">
+        <v>1115976.637468338</v>
+      </c>
+      <c r="J135">
+        <v>4841909.054967871</v>
+      </c>
+      <c r="K135">
+        <v>3987253.167805342</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>14</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116412.100398502</v>
+      </c>
+      <c r="G136">
+        <v>4841472.950743841</v>
+      </c>
+      <c r="H136">
+        <v>3986123.426986304</v>
+      </c>
+      <c r="I136">
+        <v>1116033.751064532</v>
+      </c>
+      <c r="J136">
+        <v>4841860.403385933</v>
+      </c>
+      <c r="K136">
+        <v>3987147.950023181</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>14</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116410.867372237</v>
+      </c>
+      <c r="G137">
+        <v>4841489.463568571</v>
+      </c>
+      <c r="H137">
+        <v>3986137.34377628</v>
+      </c>
+      <c r="I137">
+        <v>1116092.27103049</v>
+      </c>
+      <c r="J137">
+        <v>4841811.751803995</v>
+      </c>
+      <c r="K137">
+        <v>3987027.583589676</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>14</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116409.715528581</v>
+      </c>
+      <c r="G138">
+        <v>4841505.976393302</v>
+      </c>
+      <c r="H138">
+        <v>3986150.643495786</v>
+      </c>
+      <c r="I138">
+        <v>1116152.231996772</v>
+      </c>
+      <c r="J138">
+        <v>4841763.100222058</v>
+      </c>
+      <c r="K138">
+        <v>3986892.068504826</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>14</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116408.636338005</v>
+      </c>
+      <c r="G139">
+        <v>4841522.489218031</v>
+      </c>
+      <c r="H139">
+        <v>3986163.378551149</v>
+      </c>
+      <c r="I139">
+        <v>1116213.669446685</v>
+      </c>
+      <c r="J139">
+        <v>4841714.44864012</v>
+      </c>
+      <c r="K139">
+        <v>3986741.404768631</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>14</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116407.622474442</v>
+      </c>
+      <c r="G140">
+        <v>4841539.002042761</v>
+      </c>
+      <c r="H140">
+        <v>3986175.594943644</v>
+      </c>
+      <c r="I140">
+        <v>1116276.619737281</v>
+      </c>
+      <c r="J140">
+        <v>4841665.797058183</v>
+      </c>
+      <c r="K140">
+        <v>3986575.592381092</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>14</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116406.66760552</v>
+      </c>
+      <c r="G141">
+        <v>4841555.51486749</v>
+      </c>
+      <c r="H141">
+        <v>3986187.333272519</v>
+      </c>
+      <c r="I141">
+        <v>1116341.12012087</v>
+      </c>
+      <c r="J141">
+        <v>4841617.145476245</v>
+      </c>
+      <c r="K141">
+        <v>3986394.631342208</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>14</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116405.766225803</v>
+      </c>
+      <c r="G142">
+        <v>4841572.02769222</v>
+      </c>
+      <c r="H142">
+        <v>3986198.629549055</v>
+      </c>
+      <c r="I142">
+        <v>1116407.208767066</v>
+      </c>
+      <c r="J142">
+        <v>4841568.493894308</v>
+      </c>
+      <c r="K142">
+        <v>3986198.52165198</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>14</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116404.913522993</v>
+      </c>
+      <c r="G143">
+        <v>4841588.54051695</v>
+      </c>
+      <c r="H143">
+        <v>3986209.515862843</v>
+      </c>
+      <c r="I143">
+        <v>1116474.924785373</v>
+      </c>
+      <c r="J143">
+        <v>4841519.84231237</v>
+      </c>
+      <c r="K143">
+        <v>3985987.263310407</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>14</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116404.105269665</v>
+      </c>
+      <c r="G144">
+        <v>4841605.053341679</v>
+      </c>
+      <c r="H144">
+        <v>3986220.020931325</v>
+      </c>
+      <c r="I144">
+        <v>1116544.308248334</v>
+      </c>
+      <c r="J144">
+        <v>4841471.190730433</v>
+      </c>
+      <c r="K144">
+        <v>3985760.856317489</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>14</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116403.337734968</v>
+      </c>
+      <c r="G145">
+        <v>4841621.566166409</v>
+      </c>
+      <c r="H145">
+        <v>3986230.170556334</v>
+      </c>
+      <c r="I145">
+        <v>1116615.400215239</v>
+      </c>
+      <c r="J145">
+        <v>4841422.539148495</v>
+      </c>
+      <c r="K145">
+        <v>3985519.300673227</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>14</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116402.607612091</v>
+      </c>
+      <c r="G146">
+        <v>4841638.07899114</v>
+      </c>
+      <c r="H146">
+        <v>3986239.988005898</v>
+      </c>
+      <c r="I146">
+        <v>1116688.242756425</v>
+      </c>
+      <c r="J146">
+        <v>4841373.887566557</v>
+      </c>
+      <c r="K146">
+        <v>3985262.59637762</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>14</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116401.911958257</v>
+      </c>
+      <c r="G147">
+        <v>4841654.591815869</v>
+      </c>
+      <c r="H147">
+        <v>3986249.494335513</v>
+      </c>
+      <c r="I147">
+        <v>1116762.878978174</v>
+      </c>
+      <c r="J147">
+        <v>4841325.23598462</v>
+      </c>
+      <c r="K147">
+        <v>3984990.743430668</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>14</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116401.248144788</v>
+      </c>
+      <c r="G148">
+        <v>4841671.104640599</v>
+      </c>
+      <c r="H148">
+        <v>3986258.708660067</v>
+      </c>
+      <c r="I148">
+        <v>1116839.35304822</v>
+      </c>
+      <c r="J148">
+        <v>4841276.584402682</v>
+      </c>
+      <c r="K148">
+        <v>3984703.741832372</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>14</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116400.613815284</v>
+      </c>
+      <c r="G149">
+        <v>4841687.617465329</v>
+      </c>
+      <c r="H149">
+        <v>3986267.648385223</v>
+      </c>
+      <c r="I149">
+        <v>1116917.710221885</v>
+      </c>
+      <c r="J149">
+        <v>4841227.932820744</v>
+      </c>
+      <c r="K149">
+        <v>3984401.591582731</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>14</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116400.006850415</v>
+      </c>
+      <c r="G150">
+        <v>4841704.130290058</v>
+      </c>
+      <c r="H150">
+        <v>3986276.329405323</v>
+      </c>
+      <c r="I150">
+        <v>1116997.996868865</v>
+      </c>
+      <c r="J150">
+        <v>4841179.281238806</v>
+      </c>
+      <c r="K150">
+        <v>3984084.292681745</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>14</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116399.425338119</v>
+      </c>
+      <c r="G151">
+        <v>4841720.643114788</v>
+      </c>
+      <c r="H151">
+        <v>3986284.76627344</v>
+      </c>
+      <c r="I151">
+        <v>1117080.260500664</v>
+      </c>
+      <c r="J151">
+        <v>4841130.629656869</v>
+      </c>
+      <c r="K151">
+        <v>3983751.845129415</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>14</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116398.86754825</v>
+      </c>
+      <c r="G152">
+        <v>4841737.155939518</v>
+      </c>
+      <c r="H152">
+        <v>3986292.972348175</v>
+      </c>
+      <c r="I152">
+        <v>1117164.549798715</v>
+      </c>
+      <c r="J152">
+        <v>4841081.978074932</v>
+      </c>
+      <c r="K152">
+        <v>3983404.24892574</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>14</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116398.331910926</v>
+      </c>
+      <c r="G153">
+        <v>4841753.668764248</v>
+      </c>
+      <c r="H153">
+        <v>3986300.959920902</v>
+      </c>
+      <c r="I153">
+        <v>1117250.914643186</v>
+      </c>
+      <c r="J153">
+        <v>4841033.326492994</v>
+      </c>
+      <c r="K153">
+        <v>3983041.504070721</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>14</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116397.81699793</v>
+      </c>
+      <c r="G154">
+        <v>4841770.181588979</v>
+      </c>
+      <c r="H154">
+        <v>3986308.740326505</v>
+      </c>
+      <c r="I154">
+        <v>1117339.406142498</v>
+      </c>
+      <c r="J154">
+        <v>4840984.674911057</v>
+      </c>
+      <c r="K154">
+        <v>3982663.610564356</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>14</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116397.321506695</v>
+      </c>
+      <c r="G155">
+        <v>4841786.694413708</v>
+      </c>
+      <c r="H155">
+        <v>3986316.324040119</v>
+      </c>
+      <c r="I155">
+        <v>1117430.07666357</v>
+      </c>
+      <c r="J155">
+        <v>4840936.023329119</v>
+      </c>
+      <c r="K155">
+        <v>3982270.568406648</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>14</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116396.84424644</v>
+      </c>
+      <c r="G156">
+        <v>4841803.207238438</v>
+      </c>
+      <c r="H156">
+        <v>3986323.720761939</v>
+      </c>
+      <c r="I156">
+        <v>1117522.979862808</v>
+      </c>
+      <c r="J156">
+        <v>4840887.371747181</v>
+      </c>
+      <c r="K156">
+        <v>3981862.377597594</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>14</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116396.384126134</v>
+      </c>
+      <c r="G157">
+        <v>4841819.720063168</v>
+      </c>
+      <c r="H157">
+        <v>3986330.939491821</v>
+      </c>
+      <c r="I157">
+        <v>1117618.170717858</v>
+      </c>
+      <c r="J157">
+        <v>4840838.720165243</v>
+      </c>
+      <c r="K157">
+        <v>3981439.038137196</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>14</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116395.940144002</v>
+      </c>
+      <c r="G158">
+        <v>4841836.232887897</v>
+      </c>
+      <c r="H158">
+        <v>3986337.988595122</v>
+      </c>
+      <c r="I158">
+        <v>1117715.705560139</v>
+      </c>
+      <c r="J158">
+        <v>4840790.068583306</v>
+      </c>
+      <c r="K158">
+        <v>3981000.550025452</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>14</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116395.511378359</v>
+      </c>
+      <c r="G159">
+        <v>4841852.745712627</v>
+      </c>
+      <c r="H159">
+        <v>3986344.875860972</v>
+      </c>
+      <c r="I159">
+        <v>1117815.642108181</v>
+      </c>
+      <c r="J159">
+        <v>4840741.417001368</v>
+      </c>
+      <c r="K159">
+        <v>3980546.913262365</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>14</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116395.096979556</v>
+      </c>
+      <c r="G160">
+        <v>4841869.258537358</v>
+      </c>
+      <c r="H160">
+        <v>3986351.608554017</v>
+      </c>
+      <c r="I160">
+        <v>1117918.039501779</v>
+      </c>
+      <c r="J160">
+        <v>4840692.76541943</v>
+      </c>
+      <c r="K160">
+        <v>3980078.127847933</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>14</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" t="s">
+        <v>18</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>1116579.406778645</v>
+      </c>
+      <c r="G161">
+        <v>4841132.439309991</v>
+      </c>
+      <c r="H161">
+        <v>3985233.65187907</v>
+      </c>
+      <c r="I161">
+        <v>1114861.976199817</v>
+      </c>
+      <c r="J161">
+        <v>4843221.288909556</v>
+      </c>
+      <c r="K161">
+        <v>3984377.449124027</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>14</v>
+      </c>
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" t="s">
+        <v>18</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>1116579.406778645</v>
+      </c>
+      <c r="G162">
+        <v>4841132.439309991</v>
+      </c>
+      <c r="H162">
+        <v>3985233.65187907</v>
+      </c>
+      <c r="I162">
+        <v>1114891.590212717</v>
+      </c>
+      <c r="J162">
+        <v>4843172.637341268</v>
+      </c>
+      <c r="K162">
+        <v>3984681.245659487</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>14</v>
+      </c>
+      <c r="B163" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>1116579.406778645</v>
+      </c>
+      <c r="G163">
+        <v>4841132.439309991</v>
+      </c>
+      <c r="H163">
+        <v>3985233.65187907</v>
+      </c>
+      <c r="I163">
+        <v>1114921.933443441</v>
+      </c>
+      <c r="J163">
+        <v>4843123.985772979</v>
+      </c>
+      <c r="K163">
+        <v>3984969.893507136</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>14</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>1116579.406778645</v>
+      </c>
+      <c r="G164">
+        <v>4841132.439309991</v>
+      </c>
+      <c r="H164">
+        <v>3985233.65187907</v>
+      </c>
+      <c r="I164">
+        <v>1114953.023848306</v>
+      </c>
+      <c r="J164">
+        <v>4843075.334204691</v>
+      </c>
+      <c r="K164">
+        <v>3985243.392666975</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>14</v>
+      </c>
+      <c r="B165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" t="s">
+        <v>18</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>1116579.406778645</v>
+      </c>
+      <c r="G165">
+        <v>4841132.439309991</v>
+      </c>
+      <c r="H165">
+        <v>3985233.65187907</v>
+      </c>
+      <c r="I165">
+        <v>1114984.879825788</v>
+      </c>
+      <c r="J165">
+        <v>4843026.682636403</v>
+      </c>
+      <c r="K165">
+        <v>3985501.743139001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>14</v>
+      </c>
+      <c r="B166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>1116579.406778645</v>
+      </c>
+      <c r="G166">
+        <v>4841132.439309991</v>
+      </c>
+      <c r="H166">
+        <v>3985233.65187907</v>
+      </c>
+      <c r="I166">
+        <v>1115017.520227408</v>
+      </c>
+      <c r="J166">
+        <v>4842978.031068115</v>
+      </c>
+      <c r="K166">
+        <v>3985744.944923216</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>14</v>
+      </c>
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>1116579.406778645</v>
+      </c>
+      <c r="G167">
+        <v>4841132.439309991</v>
+      </c>
+      <c r="H167">
+        <v>3985233.65187907</v>
+      </c>
+      <c r="I167">
+        <v>1115050.96436889</v>
+      </c>
+      <c r="J167">
+        <v>4842929.379499826</v>
+      </c>
+      <c r="K167">
+        <v>3985972.99801962</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>14</v>
+      </c>
+      <c r="B168" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" t="s">
+        <v>18</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>1116579.406778645</v>
+      </c>
+      <c r="G168">
+        <v>4841132.439309991</v>
+      </c>
+      <c r="H168">
+        <v>3985233.65187907</v>
+      </c>
+      <c r="I168">
+        <v>1115085.232041588</v>
+      </c>
+      <c r="J168">
+        <v>4842880.727931538</v>
+      </c>
+      <c r="K168">
+        <v>3986185.902428213</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>14</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" t="s">
+        <v>18</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>1116579.406778645</v>
+      </c>
+      <c r="G169">
+        <v>4841148.952156067</v>
+      </c>
+      <c r="H169">
+        <v>3985233.65187907</v>
+      </c>
+      <c r="I169">
+        <v>1115120.3435242</v>
+      </c>
+      <c r="J169">
+        <v>4842832.07636325</v>
+      </c>
+      <c r="K169">
+        <v>3986383.658148993</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>14</v>
+      </c>
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170" t="s">
+        <v>18</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>1116530.726175509</v>
+      </c>
+      <c r="G170">
+        <v>4841165.465002141</v>
+      </c>
+      <c r="H170">
+        <v>3985432.906552012</v>
+      </c>
+      <c r="I170">
+        <v>1115156.31959477</v>
+      </c>
+      <c r="J170">
+        <v>4842783.424794962</v>
+      </c>
+      <c r="K170">
+        <v>3986566.265181963</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>14</v>
+      </c>
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" t="s">
+        <v>16</v>
+      </c>
+      <c r="D171" t="s">
+        <v>18</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>1116502.128763249</v>
+      </c>
+      <c r="G171">
+        <v>4841181.977848217</v>
+      </c>
+      <c r="H171">
+        <v>3985551.592825486</v>
+      </c>
+      <c r="I171">
+        <v>1115193.18154298</v>
+      </c>
+      <c r="J171">
+        <v>4842734.773226673</v>
+      </c>
+      <c r="K171">
+        <v>3986733.723527121</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>14</v>
+      </c>
+      <c r="B172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" t="s">
+        <v>18</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>1116484.075978619</v>
+      </c>
+      <c r="G172">
+        <v>4841198.490694292</v>
+      </c>
+      <c r="H172">
+        <v>3985636.40988344</v>
+      </c>
+      <c r="I172">
+        <v>1115230.951182752</v>
+      </c>
+      <c r="J172">
+        <v>4842686.121658385</v>
+      </c>
+      <c r="K172">
+        <v>3986886.033184468</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>14</v>
+      </c>
+      <c r="B173" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" t="s">
+        <v>18</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>1116471.486039898</v>
+      </c>
+      <c r="G173">
+        <v>4841215.003540367</v>
+      </c>
+      <c r="H173">
+        <v>3985702.456881028</v>
+      </c>
+      <c r="I173">
+        <v>1115269.650865156</v>
+      </c>
+      <c r="J173">
+        <v>4842637.470090097</v>
+      </c>
+      <c r="K173">
+        <v>3987023.194154003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>14</v>
+      </c>
+      <c r="B174" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" t="s">
+        <v>18</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>1116462.093568587</v>
+      </c>
+      <c r="G174">
+        <v>4841231.516386442</v>
+      </c>
+      <c r="H174">
+        <v>3985756.554495125</v>
+      </c>
+      <c r="I174">
+        <v>1115309.303491637</v>
+      </c>
+      <c r="J174">
+        <v>4842588.818521808</v>
+      </c>
+      <c r="K174">
+        <v>3987145.206435727</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>14</v>
+      </c>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" t="s">
+        <v>18</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>1116454.749967641</v>
+      </c>
+      <c r="G175">
+        <v>4841248.029232517</v>
+      </c>
+      <c r="H175">
+        <v>3985802.37122533</v>
+      </c>
+      <c r="I175">
+        <v>1115349.932527565</v>
+      </c>
+      <c r="J175">
+        <v>4842540.166953519</v>
+      </c>
+      <c r="K175">
+        <v>3987252.07002964</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>14</v>
+      </c>
+      <c r="B176" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" t="s">
+        <v>18</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>1116448.808459771</v>
+      </c>
+      <c r="G176">
+        <v>4841264.542078592</v>
+      </c>
+      <c r="H176">
+        <v>3985842.108894313</v>
+      </c>
+      <c r="I176">
+        <v>1115391.562016124</v>
+      </c>
+      <c r="J176">
+        <v>4842491.515385231</v>
+      </c>
+      <c r="K176">
+        <v>3987343.784935741</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>14</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>1116443.874891161</v>
+      </c>
+      <c r="G177">
+        <v>4841281.054924668</v>
+      </c>
+      <c r="H177">
+        <v>3985877.193323835</v>
+      </c>
+      <c r="I177">
+        <v>1115434.216592541</v>
+      </c>
+      <c r="J177">
+        <v>4842442.863816943</v>
+      </c>
+      <c r="K177">
+        <v>3987420.351154031</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>14</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>1116439.694062968</v>
+      </c>
+      <c r="G178">
+        <v>4841297.567770742</v>
+      </c>
+      <c r="H178">
+        <v>3985908.600948259</v>
+      </c>
+      <c r="I178">
+        <v>1115477.92149866</v>
+      </c>
+      <c r="J178">
+        <v>4842394.212248655</v>
+      </c>
+      <c r="K178">
+        <v>3987481.768684509</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>14</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" t="s">
+        <v>18</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>1116436.092687364</v>
+      </c>
+      <c r="G179">
+        <v>4841314.080616818</v>
+      </c>
+      <c r="H179">
+        <v>3985937.029836599</v>
+      </c>
+      <c r="I179">
+        <v>1115522.702597886</v>
+      </c>
+      <c r="J179">
+        <v>4842345.560680366</v>
+      </c>
+      <c r="K179">
+        <v>3987528.037527176</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>14</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" t="s">
+        <v>18</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>1116432.948500372</v>
+      </c>
+      <c r="G180">
+        <v>4841330.593462893</v>
+      </c>
+      <c r="H180">
+        <v>3985962.996380027</v>
+      </c>
+      <c r="I180">
+        <v>1115568.586390481</v>
+      </c>
+      <c r="J180">
+        <v>4842296.909112078</v>
+      </c>
+      <c r="K180">
+        <v>3987559.157682032</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>14</v>
+      </c>
+      <c r="B181" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" t="s">
+        <v>18</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>1116430.17248043</v>
+      </c>
+      <c r="G181">
+        <v>4841347.106308968</v>
+      </c>
+      <c r="H181">
+        <v>3985986.893333834</v>
+      </c>
+      <c r="I181">
+        <v>1115615.600029257</v>
+      </c>
+      <c r="J181">
+        <v>4842248.257543789</v>
+      </c>
+      <c r="K181">
+        <v>3987575.129149076</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>14</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" t="s">
+        <v>18</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>1116427.698083594</v>
+      </c>
+      <c r="G182">
+        <v>4841363.619155043</v>
+      </c>
+      <c r="H182">
+        <v>3986009.026385228</v>
+      </c>
+      <c r="I182">
+        <v>1115663.771335636</v>
+      </c>
+      <c r="J182">
+        <v>4842199.605975501</v>
+      </c>
+      <c r="K182">
+        <v>3987575.951928309</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>14</v>
+      </c>
+      <c r="B183" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" t="s">
+        <v>18</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>1116425.474447258</v>
+      </c>
+      <c r="G183">
+        <v>4841380.132001119</v>
+      </c>
+      <c r="H183">
+        <v>3986029.638127473</v>
+      </c>
+      <c r="I183">
+        <v>1115713.128816118</v>
+      </c>
+      <c r="J183">
+        <v>4842150.954407212</v>
+      </c>
+      <c r="K183">
+        <v>3987561.62601973</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>14</v>
+      </c>
+      <c r="B184" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" t="s">
+        <v>18</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>1116423.461944225</v>
+      </c>
+      <c r="G184">
+        <v>4841396.644847193</v>
+      </c>
+      <c r="H184">
+        <v>3986048.924311243</v>
+      </c>
+      <c r="I184">
+        <v>1115763.701679149</v>
+      </c>
+      <c r="J184">
+        <v>4842102.302838924</v>
+      </c>
+      <c r="K184">
+        <v>3987532.15142334</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>14</v>
+      </c>
+      <c r="B185" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" t="s">
+        <v>18</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>1116421.629184436</v>
+      </c>
+      <c r="G185">
+        <v>4841413.157693269</v>
+      </c>
+      <c r="H185">
+        <v>3986067.045178626</v>
+      </c>
+      <c r="I185">
+        <v>1115815.519852405</v>
+      </c>
+      <c r="J185">
+        <v>4842053.651270636</v>
+      </c>
+      <c r="K185">
+        <v>3987487.528139138</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>14</v>
+      </c>
+      <c r="B186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" t="s">
+        <v>18</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>1116419.950938954</v>
+      </c>
+      <c r="G186">
+        <v>4841429.670539343</v>
+      </c>
+      <c r="H186">
+        <v>3986084.133563831</v>
+      </c>
+      <c r="I186">
+        <v>1115868.614000506</v>
+      </c>
+      <c r="J186">
+        <v>4842004.999702347</v>
+      </c>
+      <c r="K186">
+        <v>3987427.756167125</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>14</v>
+      </c>
+      <c r="B187" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" t="s">
+        <v>18</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>1116418.406668995</v>
+      </c>
+      <c r="G187">
+        <v>4841446.183385419</v>
+      </c>
+      <c r="H187">
+        <v>3986100.300807949</v>
+      </c>
+      <c r="I187">
+        <v>1115923.015543159</v>
+      </c>
+      <c r="J187">
+        <v>4841956.348134059</v>
+      </c>
+      <c r="K187">
+        <v>3987352.835507301</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>14</v>
+      </c>
+      <c r="B188" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" t="s">
+        <v>16</v>
+      </c>
+      <c r="D188" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>1116416.979462241</v>
+      </c>
+      <c r="G188">
+        <v>4841462.696231494</v>
+      </c>
+      <c r="H188">
+        <v>3986115.641159518</v>
+      </c>
+      <c r="I188">
+        <v>1115978.756673751</v>
+      </c>
+      <c r="J188">
+        <v>4841907.696565771</v>
+      </c>
+      <c r="K188">
+        <v>3987262.766159666</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>14</v>
+      </c>
+      <c r="B189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>1116415.655249666</v>
+      </c>
+      <c r="G189">
+        <v>4841479.209077569</v>
+      </c>
+      <c r="H189">
+        <v>3986130.235103489</v>
+      </c>
+      <c r="I189">
+        <v>1116035.870378403</v>
+      </c>
+      <c r="J189">
+        <v>4841859.044997483</v>
+      </c>
+      <c r="K189">
+        <v>3987157.548124219</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>14</v>
+      </c>
+      <c r="B190" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190" t="s">
+        <v>18</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>1116414.422219476</v>
+      </c>
+      <c r="G190">
+        <v>4841495.721923644</v>
+      </c>
+      <c r="H190">
+        <v>3986144.151917235</v>
+      </c>
+      <c r="I190">
+        <v>1116094.390455488</v>
+      </c>
+      <c r="J190">
+        <v>4841810.393429194</v>
+      </c>
+      <c r="K190">
+        <v>3987037.181400961</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>14</v>
+      </c>
+      <c r="B191" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" t="s">
+        <v>16</v>
+      </c>
+      <c r="D191" t="s">
+        <v>18</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>1116413.270372151</v>
+      </c>
+      <c r="G191">
+        <v>4841512.23476972</v>
+      </c>
+      <c r="H191">
+        <v>3986157.451659455</v>
+      </c>
+      <c r="I191">
+        <v>1116154.351535633</v>
+      </c>
+      <c r="J191">
+        <v>4841761.741860906</v>
+      </c>
+      <c r="K191">
+        <v>3986901.665989891</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>14</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" t="s">
+        <v>16</v>
+      </c>
+      <c r="D192" t="s">
+        <v>18</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>1116412.19117814</v>
+      </c>
+      <c r="G192">
+        <v>4841528.747615794</v>
+      </c>
+      <c r="H192">
+        <v>3986170.18673657</v>
+      </c>
+      <c r="I192">
+        <v>1116215.789102215</v>
+      </c>
+      <c r="J192">
+        <v>4841713.090292618</v>
+      </c>
+      <c r="K192">
+        <v>3986751.00189101</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>14</v>
+      </c>
+      <c r="B193" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" t="s">
+        <v>18</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>1116411.177311348</v>
+      </c>
+      <c r="G193">
+        <v>4841545.26046187</v>
+      </c>
+      <c r="H193">
+        <v>3986182.40314993</v>
+      </c>
+      <c r="I193">
+        <v>1116278.739512352</v>
+      </c>
+      <c r="J193">
+        <v>4841664.43872433</v>
+      </c>
+      <c r="K193">
+        <v>3986585.189104317</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>14</v>
+      </c>
+      <c r="B194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" t="s">
+        <v>18</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>1116410.222439386</v>
+      </c>
+      <c r="G194">
+        <v>4841561.773307944</v>
+      </c>
+      <c r="H194">
+        <v>3986194.141498853</v>
+      </c>
+      <c r="I194">
+        <v>1116343.240018425</v>
+      </c>
+      <c r="J194">
+        <v>4841615.787156041</v>
+      </c>
+      <c r="K194">
+        <v>3986404.227629813</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>14</v>
+      </c>
+      <c r="B195" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" t="s">
+        <v>16</v>
+      </c>
+      <c r="D195" t="s">
+        <v>18</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>1116409.321056799</v>
+      </c>
+      <c r="G195">
+        <v>4841578.28615402</v>
+      </c>
+      <c r="H195">
+        <v>3986205.437794684</v>
+      </c>
+      <c r="I195">
+        <v>1116409.32879012</v>
+      </c>
+      <c r="J195">
+        <v>4841567.135587752</v>
+      </c>
+      <c r="K195">
+        <v>3986208.117467498</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>14</v>
+      </c>
+      <c r="B196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" t="s">
+        <v>16</v>
+      </c>
+      <c r="D196" t="s">
+        <v>18</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>1116408.468351273</v>
+      </c>
+      <c r="G196">
+        <v>4841594.799000095</v>
+      </c>
+      <c r="H196">
+        <v>3986216.324127064</v>
+      </c>
+      <c r="I196">
+        <v>1116477.044937019</v>
+      </c>
+      <c r="J196">
+        <v>4841518.484019464</v>
+      </c>
+      <c r="K196">
+        <v>3985996.858617371</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>14</v>
+      </c>
+      <c r="B197" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" t="s">
+        <v>18</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>1116407.660095371</v>
+      </c>
+      <c r="G197">
+        <v>4841611.31184617</v>
+      </c>
+      <c r="H197">
+        <v>3986226.829213488</v>
+      </c>
+      <c r="I197">
+        <v>1116546.428531737</v>
+      </c>
+      <c r="J197">
+        <v>4841469.832451176</v>
+      </c>
+      <c r="K197">
+        <v>3985770.451079433</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>14</v>
+      </c>
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" t="s">
+        <v>16</v>
+      </c>
+      <c r="D198" t="s">
+        <v>18</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>1116406.892558231</v>
+      </c>
+      <c r="G198">
+        <v>4841627.824692245</v>
+      </c>
+      <c r="H198">
+        <v>3986236.978855833</v>
+      </c>
+      <c r="I198">
+        <v>1116617.520633643</v>
+      </c>
+      <c r="J198">
+        <v>4841421.180882887</v>
+      </c>
+      <c r="K198">
+        <v>3985528.894853683</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>14</v>
+      </c>
+      <c r="B199" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" t="s">
+        <v>16</v>
+      </c>
+      <c r="D199" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>1116406.162433029</v>
+      </c>
+      <c r="G199">
+        <v>4841644.337538321</v>
+      </c>
+      <c r="H199">
+        <v>3986246.796322165</v>
+      </c>
+      <c r="I199">
+        <v>1116690.363313155</v>
+      </c>
+      <c r="J199">
+        <v>4841372.529314599</v>
+      </c>
+      <c r="K199">
+        <v>3985272.189940122</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>14</v>
+      </c>
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" t="s">
+        <v>16</v>
+      </c>
+      <c r="D200" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>1116405.46677698</v>
+      </c>
+      <c r="G200">
+        <v>4841660.850384395</v>
+      </c>
+      <c r="H200">
+        <v>3986256.302668015</v>
+      </c>
+      <c r="I200">
+        <v>1116764.999676635</v>
+      </c>
+      <c r="J200">
+        <v>4841323.877746311</v>
+      </c>
+      <c r="K200">
+        <v>3985000.33633875</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>14</v>
+      </c>
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" t="s">
+        <v>18</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>1116404.802961397</v>
+      </c>
+      <c r="G201">
+        <v>4841677.363230471</v>
+      </c>
+      <c r="H201">
+        <v>3986265.517008307</v>
+      </c>
+      <c r="I201">
+        <v>1116841.473891903</v>
+      </c>
+      <c r="J201">
+        <v>4841275.226178023</v>
+      </c>
+      <c r="K201">
+        <v>3984713.334049566</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>14</v>
+      </c>
+      <c r="B202" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" t="s">
+        <v>18</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>1116404.168629874</v>
+      </c>
+      <c r="G202">
+        <v>4841693.876076546</v>
+      </c>
+      <c r="H202">
+        <v>3986274.456748732</v>
+      </c>
+      <c r="I202">
+        <v>1116919.831214366</v>
+      </c>
+      <c r="J202">
+        <v>4841226.574609733</v>
+      </c>
+      <c r="K202">
+        <v>3984411.183072571</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>14</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" t="s">
+        <v>18</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>1116403.561663072</v>
+      </c>
+      <c r="G203">
+        <v>4841710.388922621</v>
+      </c>
+      <c r="H203">
+        <v>3986283.137783659</v>
+      </c>
+      <c r="I203">
+        <v>1117000.118013808</v>
+      </c>
+      <c r="J203">
+        <v>4841177.923041445</v>
+      </c>
+      <c r="K203">
+        <v>3984093.883407765</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>14</v>
+      </c>
+      <c r="B204" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" t="s">
+        <v>18</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>1116402.980148923</v>
+      </c>
+      <c r="G204">
+        <v>4841726.901768696</v>
+      </c>
+      <c r="H204">
+        <v>3986291.574666185</v>
+      </c>
+      <c r="I204">
+        <v>1117082.381801824</v>
+      </c>
+      <c r="J204">
+        <v>4841129.271473157</v>
+      </c>
+      <c r="K204">
+        <v>3983761.435055147</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>14</v>
+      </c>
+      <c r="B205" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" t="s">
+        <v>18</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>1116402.422357279</v>
+      </c>
+      <c r="G205">
+        <v>4841743.414614771</v>
+      </c>
+      <c r="H205">
+        <v>3986299.780754936</v>
+      </c>
+      <c r="I205">
+        <v>1117166.671259938</v>
+      </c>
+      <c r="J205">
+        <v>4841080.619904868</v>
+      </c>
+      <c r="K205">
+        <v>3983413.838014717</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>14</v>
+      </c>
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" t="s">
+        <v>18</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>1116401.886718249</v>
+      </c>
+      <c r="G206">
+        <v>4841759.927460846</v>
+      </c>
+      <c r="H206">
+        <v>3986307.768341305</v>
+      </c>
+      <c r="I206">
+        <v>1117253.036268413</v>
+      </c>
+      <c r="J206">
+        <v>4841031.96833658</v>
+      </c>
+      <c r="K206">
+        <v>3983051.092286477</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>14</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" t="s">
+        <v>16</v>
+      </c>
+      <c r="D207" t="s">
+        <v>18</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>1116401.371803614</v>
+      </c>
+      <c r="G207">
+        <v>4841776.440306921</v>
+      </c>
+      <c r="H207">
+        <v>3986315.548760197</v>
+      </c>
+      <c r="I207">
+        <v>1117341.527935767</v>
+      </c>
+      <c r="J207">
+        <v>4840983.316768292</v>
+      </c>
+      <c r="K207">
+        <v>3982673.197870424</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>14</v>
+      </c>
+      <c r="B208" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" t="s">
+        <v>16</v>
+      </c>
+      <c r="D208" t="s">
+        <v>18</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>1116400.876310801</v>
+      </c>
+      <c r="G208">
+        <v>4841792.953152996</v>
+      </c>
+      <c r="H208">
+        <v>3986323.132486764</v>
+      </c>
+      <c r="I208">
+        <v>1117432.19862902</v>
+      </c>
+      <c r="J208">
+        <v>4840934.665200004</v>
+      </c>
+      <c r="K208">
+        <v>3982280.154766561</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>14</v>
+      </c>
+      <c r="B209" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" t="s">
+        <v>16</v>
+      </c>
+      <c r="D209" t="s">
+        <v>18</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>1116400.399049027</v>
+      </c>
+      <c r="G209">
+        <v>4841809.465999071</v>
+      </c>
+      <c r="H209">
+        <v>3986330.529221217</v>
+      </c>
+      <c r="I209">
+        <v>1117525.102004678</v>
+      </c>
+      <c r="J209">
+        <v>4840886.013631715</v>
+      </c>
+      <c r="K209">
+        <v>3981871.962974886</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>14</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" t="s">
+        <v>16</v>
+      </c>
+      <c r="D210" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>1116399.938927255</v>
+      </c>
+      <c r="G210">
+        <v>4841825.978845146</v>
+      </c>
+      <c r="H210">
+        <v>3986337.747963428</v>
+      </c>
+      <c r="I210">
+        <v>1117620.293040492</v>
+      </c>
+      <c r="J210">
+        <v>4840837.362063427</v>
+      </c>
+      <c r="K210">
+        <v>3981448.6224954</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>14</v>
+      </c>
+      <c r="B211" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" t="s">
+        <v>16</v>
+      </c>
+      <c r="D211" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>1116399.494943709</v>
+      </c>
+      <c r="G211">
+        <v>4841842.491691221</v>
+      </c>
+      <c r="H211">
+        <v>3986344.797078769</v>
+      </c>
+      <c r="I211">
+        <v>1117717.828067989</v>
+      </c>
+      <c r="J211">
+        <v>4840788.710495139</v>
+      </c>
+      <c r="K211">
+        <v>3981010.133328102</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>14</v>
+      </c>
+      <c r="B212" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" t="s">
+        <v>16</v>
+      </c>
+      <c r="D212" t="s">
+        <v>18</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>1116399.066176701</v>
+      </c>
+      <c r="G212">
+        <v>4841859.004537296</v>
+      </c>
+      <c r="H212">
+        <v>3986351.684356383</v>
+      </c>
+      <c r="I212">
+        <v>1117817.764805807</v>
+      </c>
+      <c r="J212">
+        <v>4840740.058926851</v>
+      </c>
+      <c r="K212">
+        <v>3980556.495472993</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>14</v>
+      </c>
+      <c r="B213" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213" t="s">
+        <v>18</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>1116398.651776578</v>
+      </c>
+      <c r="G213">
+        <v>4841875.517383372</v>
+      </c>
+      <c r="H213">
+        <v>3986358.417060927</v>
+      </c>
+      <c r="I213">
+        <v>1117920.162393854</v>
+      </c>
+      <c r="J213">
+        <v>4840691.407358562</v>
+      </c>
+      <c r="K213">
+        <v>3980087.708930072</v>
       </c>
     </row>
   </sheetData>
